--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D83B62-A35D-4FAC-9B5E-6D931B8A7D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F03EDC-8B6C-4F6D-AE95-37455CB56E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -326,9 +326,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,9 +653,11 @@
     <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="5" customWidth="1"/>
+    <col min="16" max="16" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -695,16 +694,16 @@
       <c r="K1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -754,15 +753,15 @@
         <f t="array" ref="L2:L38">J2:J38-H2:H38</f>
         <v>42646</v>
       </c>
-      <c r="M2" s="6" cm="1">
+      <c r="M2" s="5" cm="1">
         <f t="array" ref="M2:M38">P2:P38-C2:C38</f>
         <v>5.2000000000000004E-5</v>
       </c>
-      <c r="N2" s="6" cm="1">
+      <c r="N2" s="5" cm="1">
         <f t="array" ref="N2:N38">Q2:Q38-D2:D38</f>
         <v>3.9999999999999996E-5</v>
       </c>
-      <c r="O2" s="6" cm="1">
+      <c r="O2" s="5" cm="1">
         <f t="array" ref="O2:O38">N2:N38/M2:M38</f>
         <v>0.76923076923076916</v>
       </c>
@@ -810,13 +809,13 @@
       <c r="L3">
         <v>117576</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>2.1000000000000002E-5</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>2.2857142857142856</v>
       </c>
       <c r="P3">
@@ -863,13 +862,13 @@
       <c r="L4">
         <v>147610</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>2.9E-4</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>1.8954248366013071</v>
       </c>
       <c r="P4">
@@ -916,13 +915,13 @@
       <c r="L5">
         <v>473500</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>2.8199999999999997E-4</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>5.6099999999999998E-4</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>1.9893617021276597</v>
       </c>
       <c r="P5">
@@ -969,13 +968,13 @@
       <c r="L6">
         <v>856673</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>4.5000000000000004E-4</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>2.81E-4</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0.62444444444444436</v>
       </c>
       <c r="P6" s="4">
@@ -1022,13 +1021,13 @@
       <c r="L7">
         <v>976102</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>2.9E-4</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>3.3599999999999993E-4</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>1.1586206896551721</v>
       </c>
       <c r="P7">
@@ -1075,13 +1074,13 @@
       <c r="L8">
         <v>2421872</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>4.9399999999999997E-4</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>5.889999999999999E-4</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>1.1923076923076921</v>
       </c>
       <c r="P8">
@@ -1128,13 +1127,13 @@
       <c r="L9">
         <v>1928091</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>2.8700000000000004E-4</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>3.1199999999999999E-4</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>1.0871080139372822</v>
       </c>
       <c r="P9">
@@ -1181,13 +1180,13 @@
       <c r="L10">
         <v>2685757</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>3.3859999999999997E-3</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>2.3513888888888883</v>
       </c>
       <c r="P10">
@@ -1234,13 +1233,13 @@
       <c r="L11">
         <v>6371330</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>1.4629999999999999E-3</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>1.359E-3</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>0.9289131920710868</v>
       </c>
       <c r="P11">
@@ -1287,13 +1286,13 @@
       <c r="L12">
         <v>10716285</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>2.2859999999999998E-3</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>3.4030000000000002E-3</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>1.488626421697288</v>
       </c>
       <c r="P12">
@@ -1340,13 +1339,13 @@
       <c r="L13">
         <v>15745211</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>3.2049999999999995E-3</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>5.8259999999999996E-3</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>1.8177847113884558</v>
       </c>
       <c r="P13">
@@ -1393,13 +1392,13 @@
       <c r="L14" s="4">
         <v>22132301</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>6.4869999999999997E-3</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>1.1535E-2</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>1.7781717280715277</v>
       </c>
       <c r="P14">
@@ -1446,13 +1445,13 @@
       <c r="L15">
         <v>21992926</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>1.6233999999999998E-2</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>3.2257000000000001E-2</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>1.987002587162745</v>
       </c>
       <c r="P15">
@@ -1499,13 +1498,13 @@
       <c r="L16">
         <v>32442452</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>8.005E-3</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>1.5366000000000001E-2</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>1.9195502810743288</v>
       </c>
       <c r="P16">
@@ -1552,13 +1551,13 @@
       <c r="L17">
         <v>38820573</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>1.0779E-2</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>2.0423999999999998E-2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>1.8947954355691621</v>
       </c>
       <c r="P17">
@@ -1605,13 +1604,13 @@
       <c r="L18" s="4">
         <v>97389508</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>5.0141000000000005E-2</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>9.289E-2</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>1.8525757364232862</v>
       </c>
       <c r="P18">
@@ -1658,13 +1657,13 @@
       <c r="L19" s="4">
         <v>94462143</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>0.42857099999999998</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>0.68981300000000001</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>1.609565276231943</v>
       </c>
       <c r="P19">
@@ -1711,13 +1710,13 @@
       <c r="L20" s="4">
         <v>203484580</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>1.1517219999999999</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>1.8926829999999999</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>1.6433505655010499</v>
       </c>
       <c r="P20">
@@ -1764,13 +1763,13 @@
       <c r="L21" s="4">
         <v>681147114</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>0.64137</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>1.0232350000000001</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>1.5953895567301248</v>
       </c>
       <c r="P21">
@@ -1817,13 +1816,13 @@
       <c r="L22" s="4">
         <v>1155319141</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>0.88049299999999997</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>1.719401</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <v>1.9527707772804554</v>
       </c>
       <c r="P22">
@@ -1870,13 +1869,13 @@
       <c r="L23">
         <v>1888938</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>1.191E-3</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>2.47E-3</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>2.0738874895046178</v>
       </c>
       <c r="P23">
@@ -1923,13 +1922,13 @@
       <c r="L24">
         <v>3303314</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>5.5019999999999999E-3</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>2.1161538461538463</v>
       </c>
       <c r="P24">
@@ -1976,13 +1975,13 @@
       <c r="L25">
         <v>4733654</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>5.2240000000000003E-3</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>1.1249E-2</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>2.1533307810107196</v>
       </c>
       <c r="P25">
@@ -2029,13 +2028,13 @@
       <c r="L26">
         <v>7538954</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>1.3774E-2</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>3.1584000000000001E-2</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>2.2930158269202847</v>
       </c>
       <c r="P26">
@@ -2082,13 +2081,13 @@
       <c r="L27" s="4">
         <v>11338515</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>3.4598000000000004E-2</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>7.0444999999999994E-2</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>2.0361003526215384</v>
       </c>
       <c r="P27">
@@ -2135,13 +2134,13 @@
       <c r="L28" s="4">
         <v>11077015</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>5.4697999999999997E-2</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>9.9475999999999995E-2</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <v>1.8186405353029362</v>
       </c>
       <c r="P28">
@@ -2188,13 +2187,13 @@
       <c r="L29" s="4">
         <v>12290560</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>9.6740000000000007E-2</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>0.185529</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>1.9178106264213355</v>
       </c>
       <c r="P29">
@@ -2241,13 +2240,13 @@
       <c r="L30" s="4">
         <v>17884397</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>0.21862100000000001</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>0.39219599999999999</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <v>1.7939539202546873</v>
       </c>
       <c r="P30">
@@ -2294,13 +2293,13 @@
       <c r="L31">
         <v>1544564</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <v>2.7130000000000001E-3</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>8.0260000000000001E-3</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>2.9583486914854404</v>
       </c>
       <c r="P31">
@@ -2347,13 +2346,13 @@
       <c r="L32" s="4">
         <v>3238144</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>5.8849999999999996E-3</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>1.8626999999999998E-2</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <v>3.1651656754460493</v>
       </c>
       <c r="P32">
@@ -2400,13 +2399,13 @@
       <c r="L33">
         <v>4674767</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <v>1.082E-2</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>2.3297999999999999E-2</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>2.153234750462107</v>
       </c>
       <c r="P33">
@@ -2453,13 +2452,13 @@
       <c r="L34" s="4">
         <v>11338515</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>3.4608E-2</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>7.0545999999999998E-2</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <v>2.0384304207119741</v>
       </c>
       <c r="P34">
@@ -2506,13 +2505,13 @@
       <c r="L35">
         <v>14771875</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <v>5.7480999999999997E-2</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <v>0.100342</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <v>1.7456550860284268</v>
       </c>
       <c r="P35">
@@ -2559,13 +2558,13 @@
       <c r="L36" s="4">
         <v>34550318</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <v>0.17302899999999999</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <v>0.28906599999999999</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="6">
         <v>1.6706216876939703</v>
       </c>
       <c r="P36">
@@ -2612,13 +2611,13 @@
       <c r="L37" s="4">
         <v>81995394</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>0.52744599999999997</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>0.89530799999999999</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <v>1.6974401170925555</v>
       </c>
       <c r="P37">
@@ -2665,13 +2664,13 @@
       <c r="L38" s="4">
         <v>104297302</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>0.82624500000000001</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>1.26427</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <v>1.5301393654424535</v>
       </c>
       <c r="P38">

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F03EDC-8B6C-4F6D-AE95-37455CB56E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867DDE3-C6D4-488B-BE99-F4AD46728F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Triangle-count</t>
   </si>
   <si>
-    <t>edge-count</t>
-  </si>
-  <si>
     <t>GroupTC-HASH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,10 +181,6 @@
     <t>cluster4-s24-e32</t>
   </si>
   <si>
-    <t>speed-up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>warpfirstvertex</t>
   </si>
   <si>
@@ -225,6 +218,14 @@
   </si>
   <si>
     <t>speed-up_search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge-count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed-up_build</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,6 +648,7 @@
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.75" bestFit="1" customWidth="1"/>
@@ -662,60 +664,60 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -774,7 +776,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -827,7 +829,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -880,7 +882,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -933,7 +935,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -986,7 +988,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1039,7 +1041,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1092,7 +1094,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1145,7 +1147,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1198,7 +1200,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1251,7 +1253,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1304,7 +1306,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1357,7 +1359,7 @@
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -1410,7 +1412,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1463,7 +1465,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1516,7 +1518,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1569,7 +1571,7 @@
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1622,7 +1624,7 @@
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1675,7 +1677,7 @@
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -1728,7 +1730,7 @@
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -1781,7 +1783,7 @@
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -1834,7 +1836,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1887,7 +1889,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1940,7 +1942,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1993,7 +1995,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2046,7 +2048,7 @@
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -2099,7 +2101,7 @@
     </row>
     <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -2152,7 +2154,7 @@
     </row>
     <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -2205,7 +2207,7 @@
     </row>
     <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -2258,7 +2260,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2311,7 +2313,7 @@
     </row>
     <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -2364,7 +2366,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2417,7 +2419,7 @@
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -2470,7 +2472,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2523,7 +2525,7 @@
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2576,7 +2578,7 @@
     </row>
     <row r="37" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -2629,7 +2631,7 @@
     </row>
     <row r="38" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867DDE3-C6D4-488B-BE99-F4AD46728F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B58C73-C49A-4F71-8711-7BD8374923DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Triangle-count</t>
   </si>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>speed-up_build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_degree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,14 +659,15 @@
     <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="5" customWidth="1"/>
-    <col min="16" max="16" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="5" customWidth="1"/>
+    <col min="17" max="17" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -700,22 +705,25 @@
         <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -755,26 +763,30 @@
         <f t="array" ref="L2:L38">J2:J38-H2:H38</f>
         <v>42646</v>
       </c>
-      <c r="M2" s="5" cm="1">
-        <f t="array" ref="M2:M38">P2:P38-C2:C38</f>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:M38">(L2:L38)*2/K2:K38</f>
+        <v>5.4294990133044747</v>
+      </c>
+      <c r="N2" s="5" cm="1">
+        <f t="array" ref="N2:N38">Q2:Q38-C2:C38</f>
         <v>5.2000000000000004E-5</v>
       </c>
-      <c r="N2" s="5" cm="1">
-        <f t="array" ref="N2:N38">Q2:Q38-D2:D38</f>
+      <c r="O2" s="5" cm="1">
+        <f t="array" ref="O2:O38">R2:R38-D2:D38</f>
         <v>3.9999999999999996E-5</v>
       </c>
-      <c r="O2" s="5" cm="1">
-        <f t="array" ref="O2:O38">N2:N38/M2:M38</f>
+      <c r="P2" s="5" cm="1">
+        <f t="array" ref="P2:P38">O2:O38/N2:N38</f>
         <v>0.76923076923076916</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8.8999999999999995E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -811,23 +823,26 @@
       <c r="L3">
         <v>117576</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3">
+        <v>7.4705975791848012</v>
+      </c>
+      <c r="N3" s="5">
         <v>2.1000000000000002E-5</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>2.2857142857142856</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9.7E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -864,23 +879,26 @@
       <c r="L4">
         <v>147610</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4">
+        <v>8.2254604218327714</v>
+      </c>
+      <c r="N4" s="5">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>2.9E-4</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>1.8954248366013071</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.76E-4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3.4400000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -917,23 +935,26 @@
       <c r="L5">
         <v>473500</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
+        <v>18.446734324171651</v>
+      </c>
+      <c r="N5" s="5">
         <v>2.8199999999999997E-4</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>5.6099999999999998E-4</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>1.9893617021276597</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3.1399999999999999E-4</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -970,23 +991,26 @@
       <c r="L6">
         <v>856673</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6">
+        <v>11.333227498528235</v>
+      </c>
+      <c r="N6" s="5">
         <v>4.5000000000000004E-4</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>2.81E-4</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>0.62444444444444436</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>4.2900000000000002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1023,23 +1047,26 @@
       <c r="L7">
         <v>976102</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7">
+        <v>8.0504917627167565</v>
+      </c>
+      <c r="N7" s="5">
         <v>2.9E-4</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>3.3599999999999993E-4</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>1.1586206896551721</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5.5599999999999996E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1076,23 +1103,26 @@
       <c r="L8">
         <v>2421872</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8">
+        <v>12.836448536212412</v>
+      </c>
+      <c r="N8" s="5">
         <v>4.9399999999999997E-4</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>5.889999999999999E-4</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>1.1923076923076921</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5.9800000000000001E-4</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>9.1299999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1129,23 +1159,26 @@
       <c r="L9">
         <v>1928091</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9">
+        <v>4.5038174358183749</v>
+      </c>
+      <c r="N9" s="5">
         <v>2.8700000000000004E-4</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>3.1199999999999999E-4</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>1.0871080139372822</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3.86E-4</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>9.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1182,23 +1215,26 @@
       <c r="L10">
         <v>2685757</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
+        <v>8.6693113794199821</v>
+      </c>
+      <c r="N10" s="5">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>3.3859999999999997E-3</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>2.3513888888888883</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1.557E-3</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1235,23 +1271,26 @@
       <c r="L11">
         <v>6371330</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11">
+        <v>21.00548105532981</v>
+      </c>
+      <c r="N11" s="5">
         <v>1.4629999999999999E-3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>1.359E-3</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>0.9289131920710868</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1.702E-3</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.838E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1288,23 +1327,26 @@
       <c r="L12">
         <v>10716285</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12">
+        <v>15.070254968263445</v>
+      </c>
+      <c r="N12" s="5">
         <v>2.2859999999999998E-3</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>3.4030000000000002E-3</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>1.488626421697288</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2.7109999999999999E-3</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4.4850000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1341,23 +1383,26 @@
       <c r="L13">
         <v>15745211</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
+        <v>10.693038853683564</v>
+      </c>
+      <c r="N13" s="5">
         <v>3.2049999999999995E-3</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>5.8259999999999996E-3</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>1.8177847113884558</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>4.8409999999999998E-3</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>8.0149999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1394,23 +1439,26 @@
       <c r="L14" s="4">
         <v>22132301</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
+        <v>30.265339123216901</v>
+      </c>
+      <c r="N14" s="6">
         <v>6.4869999999999997E-3</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>1.1535E-2</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>1.7781717280715277</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>7.757E-3</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.2658000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1447,23 +1495,26 @@
       <c r="L15">
         <v>21992926</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
+        <v>23.027554001277394</v>
+      </c>
+      <c r="N15" s="5">
         <v>1.6233999999999998E-2</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>3.2257000000000001E-2</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>1.987002587162745</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.7401E-2</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3.3708000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1500,23 +1551,26 @@
       <c r="L16">
         <v>32442452</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
+        <v>20.777244616593066</v>
+      </c>
+      <c r="N16" s="5">
         <v>8.005E-3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>1.5366000000000001E-2</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>1.9195502810743288</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>9.7780000000000002E-3</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.7707000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1553,23 +1607,26 @@
       <c r="L17">
         <v>38820573</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17">
+        <v>21.202664330511997</v>
+      </c>
+      <c r="N17" s="5">
         <v>1.0779E-2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>2.0423999999999998E-2</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>1.8947954355691621</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.3069000000000001E-2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.3163E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1606,23 +1663,26 @@
       <c r="L18" s="4">
         <v>97389508</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="4">
+        <v>67.574047521329916</v>
+      </c>
+      <c r="N18" s="6">
         <v>5.0141000000000005E-2</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>9.289E-2</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>1.8525757364232862</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>5.7147000000000003E-2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>9.5170000000000005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1659,23 +1719,26 @@
       <c r="L19" s="4">
         <v>94462143</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="4">
+        <v>30.696146885822088</v>
+      </c>
+      <c r="N19" s="6">
         <v>0.42857099999999998</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <v>0.68981300000000001</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <v>1.609565276231943</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.434002</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.69444700000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1712,23 +1775,26 @@
       <c r="L20" s="4">
         <v>203484580</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="4">
+        <v>34.162363099904447</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.1517219999999999</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>1.8926829999999999</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>1.6433505655010499</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1.166801</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1.9016869999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1765,23 +1831,26 @@
       <c r="L21" s="4">
         <v>681147114</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
+        <v>36.051338085101364</v>
+      </c>
+      <c r="N21" s="6">
         <v>0.64137</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <v>1.0232350000000001</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <v>1.5953895567301248</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.70181000000000004</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1.0517080000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1818,23 +1887,26 @@
       <c r="L22" s="4">
         <v>1155319141</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="4">
+        <v>48.983863109648304</v>
+      </c>
+      <c r="N22" s="6">
         <v>0.88049299999999997</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <v>1.719401</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <v>1.9527707772804554</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1.082956</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1.755503</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1871,23 +1943,26 @@
       <c r="L23">
         <v>1888938</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23">
+        <v>17.285699251904553</v>
+      </c>
+      <c r="N23" s="5">
         <v>1.191E-3</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>2.47E-3</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>2.0738874895046178</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2.6919999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1924,23 +1999,26 @@
       <c r="L24">
         <v>3303314</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24">
+        <v>21.786077493816983</v>
+      </c>
+      <c r="N24" s="5">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <v>5.5019999999999999E-3</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>2.1161538461538463</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2.7659999999999998E-3</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>5.7990000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1977,23 +2055,26 @@
       <c r="L25">
         <v>4733654</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25">
+        <v>24.424577027661538</v>
+      </c>
+      <c r="N25" s="5">
         <v>5.2240000000000003E-3</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <v>1.1249E-2</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>2.1533307810107196</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>5.4440000000000001E-3</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1.1587E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2030,23 +2111,26 @@
       <c r="L26">
         <v>7538954</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26">
+        <v>31.603244602808637</v>
+      </c>
+      <c r="N26" s="5">
         <v>1.3774E-2</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <v>3.1584000000000001E-2</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>2.2930158269202847</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.4109999999999999E-2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3.1974000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2083,23 +2167,26 @@
       <c r="L27" s="4">
         <v>11338515</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="4">
+        <v>40.037836119987993</v>
+      </c>
+      <c r="N27" s="6">
         <v>3.4598000000000004E-2</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <v>7.0444999999999994E-2</v>
       </c>
-      <c r="O27" s="6">
+      <c r="P27" s="6">
         <v>2.0361003526215384</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3.5111000000000003E-2</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>7.0905999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -2136,23 +2223,26 @@
       <c r="L28" s="4">
         <v>11077015</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="4">
+        <v>37.492519783649129</v>
+      </c>
+      <c r="N28" s="6">
         <v>5.4697999999999997E-2</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <v>9.9475999999999995E-2</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <v>1.8186405353029362</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5.5204999999999997E-2</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>9.9953E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2189,23 +2279,26 @@
       <c r="L29" s="4">
         <v>12290560</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="4">
+        <v>41.605020810025373</v>
+      </c>
+      <c r="N29" s="6">
         <v>9.6740000000000007E-2</v>
       </c>
-      <c r="N29" s="6">
+      <c r="O29" s="6">
         <v>0.185529</v>
       </c>
-      <c r="O29" s="6">
+      <c r="P29" s="6">
         <v>1.9178106264213355</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>9.7303000000000001E-2</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.18601000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -2242,23 +2335,26 @@
       <c r="L30" s="4">
         <v>17884397</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="4">
+        <v>56.898330374584027</v>
+      </c>
+      <c r="N30" s="6">
         <v>0.21862100000000001</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <v>0.39219599999999999</v>
       </c>
-      <c r="O30" s="6">
+      <c r="P30" s="6">
         <v>1.7939539202546873</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.219446</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.39271400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2295,23 +2391,26 @@
       <c r="L31">
         <v>1544564</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31">
+        <v>39.355458448524075</v>
+      </c>
+      <c r="N31" s="5">
         <v>2.7130000000000001E-3</v>
       </c>
-      <c r="N31" s="5">
+      <c r="O31" s="5">
         <v>8.0260000000000001E-3</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="5">
         <v>2.9583486914854404</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2.81E-3</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>8.1320000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -2348,23 +2447,26 @@
       <c r="L32" s="4">
         <v>3238144</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="4">
+        <v>42.431013359016191</v>
+      </c>
+      <c r="N32" s="6">
         <v>5.8849999999999996E-3</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <v>1.8626999999999998E-2</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="6">
         <v>3.1651656754460493</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>6.045E-3</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1.8783999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2401,23 +2503,26 @@
       <c r="L33">
         <v>4674767</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33">
+        <v>33.200173288685455</v>
+      </c>
+      <c r="N33" s="5">
         <v>1.082E-2</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <v>2.3297999999999999E-2</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <v>2.153234750462107</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>1.1037999999999999E-2</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2.3555E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2454,23 +2559,26 @@
       <c r="L34" s="4">
         <v>11338515</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="4">
+        <v>40.037836119987993</v>
+      </c>
+      <c r="N34" s="6">
         <v>3.4608E-2</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>7.0545999999999998E-2</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <v>2.0384304207119741</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>3.5113999999999999E-2</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>7.1007000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2507,23 +2615,26 @@
       <c r="L35">
         <v>14771875</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35">
+        <v>29.119794905964071</v>
+      </c>
+      <c r="N35" s="5">
         <v>5.7480999999999997E-2</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <v>0.100342</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="5">
         <v>1.7456550860284268</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>5.8167999999999997E-2</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.10113</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -2560,23 +2671,26 @@
       <c r="L36" s="4">
         <v>34550318</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="4">
+        <v>33.950847879000492</v>
+      </c>
+      <c r="N36" s="6">
         <v>0.17302899999999999</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <v>0.28906599999999999</v>
       </c>
-      <c r="O36" s="6">
+      <c r="P36" s="6">
         <v>1.6706216876939703</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.17467199999999999</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.29062399999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -2613,23 +2727,26 @@
       <c r="L37" s="4">
         <v>81995394</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="4">
+        <v>40.424786815060266</v>
+      </c>
+      <c r="N37" s="6">
         <v>0.52744599999999997</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>0.89530799999999999</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <v>1.6974401170925555</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.53152299999999997</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.89841499999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -2666,19 +2783,22 @@
       <c r="L38" s="4">
         <v>104297302</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="4">
+        <v>28.541432669210195</v>
+      </c>
+      <c r="N38" s="6">
         <v>0.82624500000000001</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>1.26427</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <v>1.5301393654424535</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.83467100000000005</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>1.269746</v>
       </c>
     </row>

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B58C73-C49A-4F71-8711-7BD8374923DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A66FF-8945-4969-8856-7C076EB37C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Triangle-count</t>
   </si>
@@ -193,14 +193,6 @@
     <t>nocomputefirstedge</t>
   </si>
   <si>
-    <t>degree&lt;100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>edge&lt;100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TRUST-search-time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -230,6 +222,18 @@
   </si>
   <si>
     <t>avg_degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V&lt;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E&lt;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed-up</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +671,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -681,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
@@ -699,31 +703,34 @@
         <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -785,8 +792,12 @@
       <c r="R2">
         <v>8.8999999999999995E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S2" cm="1">
+        <f t="array" ref="S2:S38">R2:R38/Q2:Q38</f>
+        <v>1.0987654320987654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -841,8 +852,11 @@
       <c r="R3">
         <v>9.7E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S3">
+        <v>2.2558139534883721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -897,8 +911,11 @@
       <c r="R4">
         <v>3.4400000000000001E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S4">
+        <v>1.9545454545454546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -953,8 +970,11 @@
       <c r="R5">
         <v>6.3199999999999997E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S5">
+        <v>2.0127388535031847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="R6" s="4">
         <v>4.2900000000000002E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S6">
+        <v>0.85628742514970058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1088,11 @@
       <c r="R7">
         <v>5.5599999999999996E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S7">
+        <v>1.6352941176470586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1121,8 +1147,11 @@
       <c r="R8">
         <v>9.1299999999999997E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S8">
+        <v>1.5267558528428093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1177,8 +1206,11 @@
       <c r="R9">
         <v>9.6699999999999998E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S9">
+        <v>2.5051813471502591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1233,8 +1265,11 @@
       <c r="R10">
         <v>3.8709999999999999E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S10">
+        <v>2.4861913937058446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1289,8 +1324,11 @@
       <c r="R11">
         <v>1.838E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S11">
+        <v>1.0799059929494712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1383,11 @@
       <c r="R12">
         <v>4.4850000000000003E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S12">
+        <v>1.6543710807819993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1401,8 +1442,11 @@
       <c r="R13">
         <v>8.0149999999999996E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S13">
+        <v>1.6556496591613303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1457,8 +1501,11 @@
       <c r="R14">
         <v>1.2658000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S14" s="4">
+        <v>1.6318164238752095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1513,8 +1560,11 @@
       <c r="R15">
         <v>3.3708000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S15">
+        <v>1.9371300499971267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1569,8 +1619,11 @@
       <c r="R16">
         <v>1.7707000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S16">
+        <v>1.8109020249539782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1625,8 +1678,11 @@
       <c r="R17">
         <v>2.3163E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S17">
+        <v>1.7723620782003213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1681,8 +1737,11 @@
       <c r="R18">
         <v>9.5170000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="4">
+        <v>1.6653542618160184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1737,8 +1796,11 @@
       <c r="R19">
         <v>0.69444700000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S19" s="4">
+        <v>1.6001009211939117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1793,8 +1855,11 @@
       <c r="R20">
         <v>1.9016869999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S20" s="4">
+        <v>1.6298297653155935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1849,8 +1914,11 @@
       <c r="R21">
         <v>1.0517080000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S21" s="4">
+        <v>1.498565138712757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1905,8 +1973,11 @@
       <c r="R22">
         <v>1.755503</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S22" s="4">
+        <v>1.6210289245361769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1914,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.0900000000000001E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="D23">
-        <v>2.22E-4</v>
+        <v>2.1699999999999999E-4</v>
       </c>
       <c r="E23">
         <v>2063645</v>
       </c>
       <c r="F23">
-        <v>2.0366972477064218</v>
+        <v>2.02803738317757</v>
       </c>
       <c r="G23">
         <v>333</v>
@@ -1947,22 +2018,25 @@
         <v>17.285699251904553</v>
       </c>
       <c r="N23" s="5">
-        <v>1.191E-3</v>
+        <v>1.193E-3</v>
       </c>
       <c r="O23" s="5">
-        <v>2.47E-3</v>
+        <v>2.2919999999999998E-3</v>
       </c>
       <c r="P23" s="5">
-        <v>2.0738874895046178</v>
+        <v>1.9212070410729252</v>
       </c>
       <c r="Q23">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="R23">
-        <v>2.6919999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+        <v>2.5089999999999999E-3</v>
+      </c>
+      <c r="S23">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1970,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.66E-4</v>
+        <v>1.64E-4</v>
       </c>
       <c r="D24">
-        <v>2.9700000000000001E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="E24">
         <v>4081946</v>
       </c>
       <c r="F24">
-        <v>1.7891566265060241</v>
+        <v>1.7560975609756098</v>
       </c>
       <c r="G24">
         <v>4868</v>
@@ -2003,22 +2077,25 @@
         <v>21.786077493816983</v>
       </c>
       <c r="N24" s="5">
-        <v>2.5999999999999999E-3</v>
+        <v>2.4909999999999997E-3</v>
       </c>
       <c r="O24" s="5">
         <v>5.5019999999999999E-3</v>
       </c>
       <c r="P24" s="5">
-        <v>2.1161538461538463</v>
+        <v>2.2087515054195106</v>
       </c>
       <c r="Q24">
-        <v>2.7659999999999998E-3</v>
+        <v>2.6549999999999998E-3</v>
       </c>
       <c r="R24">
-        <v>5.7990000000000003E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+        <v>5.79E-3</v>
+      </c>
+      <c r="S24">
+        <v>2.1807909604519775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2026,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.2000000000000001E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="D25">
-        <v>3.3799999999999998E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="E25">
         <v>8029377</v>
       </c>
       <c r="F25">
-        <v>1.5363636363636362</v>
+        <v>1.5022421524663678</v>
       </c>
       <c r="G25">
         <v>21068</v>
@@ -2059,22 +2136,25 @@
         <v>24.424577027661538</v>
       </c>
       <c r="N25" s="5">
-        <v>5.2240000000000003E-3</v>
+        <v>5.2209999999999999E-3</v>
       </c>
       <c r="O25" s="5">
-        <v>1.1249E-2</v>
+        <v>1.1245E-2</v>
       </c>
       <c r="P25" s="5">
-        <v>2.1533307810107196</v>
+        <v>2.1538019536487263</v>
       </c>
       <c r="Q25">
         <v>5.4440000000000001E-3</v>
       </c>
       <c r="R25">
-        <v>1.1587E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1.158E-2</v>
+      </c>
+      <c r="S25">
+        <v>2.1271124173401912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2082,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3.3599999999999998E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="D26">
-        <v>3.8999999999999999E-4</v>
+        <v>3.8699999999999997E-4</v>
       </c>
       <c r="E26">
         <v>15673919</v>
       </c>
       <c r="F26">
-        <v>1.1607142857142858</v>
+        <v>1.1552238805970148</v>
       </c>
       <c r="G26">
         <v>40184</v>
@@ -2115,39 +2195,42 @@
         <v>31.603244602808637</v>
       </c>
       <c r="N26" s="5">
-        <v>1.3774E-2</v>
+        <v>1.3774999999999999E-2</v>
       </c>
       <c r="O26" s="5">
-        <v>3.1584000000000001E-2</v>
+        <v>3.1594000000000004E-2</v>
       </c>
       <c r="P26" s="5">
-        <v>2.2930158269202847</v>
+        <v>2.2935753176043563</v>
       </c>
       <c r="Q26">
         <v>1.4109999999999999E-2</v>
       </c>
       <c r="R26">
-        <v>3.1974000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>3.1981000000000002E-2</v>
+      </c>
+      <c r="S26">
+        <v>2.2665485471296956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
       </c>
-      <c r="C27" s="4">
-        <v>5.13E-4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4.6099999999999998E-4</v>
+      <c r="C27">
+        <v>5.0600000000000005E-4</v>
+      </c>
+      <c r="D27">
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="E27" s="4">
         <v>30290104</v>
       </c>
       <c r="F27" s="4">
-        <v>0.89863547758284601</v>
+        <v>0.90513833992094861</v>
       </c>
       <c r="G27" s="4">
         <v>60416</v>
@@ -2171,39 +2254,42 @@
         <v>40.037836119987993</v>
       </c>
       <c r="N27" s="6">
-        <v>3.4598000000000004E-2</v>
+        <v>3.4605000000000004E-2</v>
       </c>
       <c r="O27" s="6">
-        <v>7.0444999999999994E-2</v>
+        <v>7.0555999999999994E-2</v>
       </c>
       <c r="P27" s="6">
-        <v>2.0361003526215384</v>
+        <v>2.0388961132784273</v>
       </c>
       <c r="Q27">
         <v>3.5111000000000003E-2</v>
       </c>
       <c r="R27">
-        <v>7.0905999999999997E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>7.1013999999999994E-2</v>
+      </c>
+      <c r="S27" s="4">
+        <v>2.0225570334083334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
       </c>
-      <c r="C28" s="4">
-        <v>5.0699999999999996E-4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>4.7699999999999999E-4</v>
+      <c r="C28">
+        <v>4.95E-4</v>
+      </c>
+      <c r="D28">
+        <v>4.7399999999999997E-4</v>
       </c>
       <c r="E28" s="4">
         <v>57814555</v>
       </c>
       <c r="F28" s="4">
-        <v>0.94082840236686394</v>
+        <v>0.95757575757575752</v>
       </c>
       <c r="G28" s="4">
         <v>137879</v>
@@ -2227,39 +2313,42 @@
         <v>37.492519783649129</v>
       </c>
       <c r="N28" s="6">
-        <v>5.4697999999999997E-2</v>
+        <v>5.4713999999999999E-2</v>
       </c>
       <c r="O28" s="6">
-        <v>9.9475999999999995E-2</v>
+        <v>9.9623000000000003E-2</v>
       </c>
       <c r="P28" s="6">
-        <v>1.8186405353029362</v>
+        <v>1.82079540885331</v>
       </c>
       <c r="Q28">
-        <v>5.5204999999999997E-2</v>
+        <v>5.5209000000000001E-2</v>
       </c>
       <c r="R28">
-        <v>9.9953E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.10009700000000001</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1.8130558423445453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
       </c>
-      <c r="C29" s="4">
-        <v>5.6300000000000002E-4</v>
-      </c>
-      <c r="D29" s="4">
-        <v>4.8099999999999998E-4</v>
+      <c r="C29">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="D29">
+        <v>4.7899999999999999E-4</v>
       </c>
       <c r="E29" s="4">
         <v>108747344</v>
       </c>
       <c r="F29" s="4">
-        <v>0.85435168738898748</v>
+        <v>0.87728937728937717</v>
       </c>
       <c r="G29" s="4">
         <v>228316</v>
@@ -2283,39 +2372,42 @@
         <v>41.605020810025373</v>
       </c>
       <c r="N29" s="6">
-        <v>9.6740000000000007E-2</v>
+        <v>9.6797999999999995E-2</v>
       </c>
       <c r="O29" s="6">
-        <v>0.185529</v>
+        <v>0.185775</v>
       </c>
       <c r="P29" s="6">
-        <v>1.9178106264213355</v>
+        <v>1.9192028760924813</v>
       </c>
       <c r="Q29">
-        <v>9.7303000000000001E-2</v>
+        <v>9.7344E-2</v>
       </c>
       <c r="R29">
-        <v>0.18601000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.186254</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1.9133588099934253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
       </c>
-      <c r="C30" s="4">
-        <v>8.25E-4</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5.1800000000000001E-4</v>
+      <c r="C30">
+        <v>7.8100000000000001E-4</v>
+      </c>
+      <c r="D30">
+        <v>5.1500000000000005E-4</v>
       </c>
       <c r="E30" s="4">
         <v>201086863</v>
       </c>
       <c r="F30" s="4">
-        <v>0.62787878787878793</v>
+        <v>0.65941101152368764</v>
       </c>
       <c r="G30" s="4">
         <v>263944</v>
@@ -2339,22 +2431,25 @@
         <v>56.898330374584027</v>
       </c>
       <c r="N30" s="6">
-        <v>0.21862100000000001</v>
+        <v>0.21873000000000001</v>
       </c>
       <c r="O30" s="6">
-        <v>0.39219599999999999</v>
+        <v>0.39269500000000002</v>
       </c>
       <c r="P30" s="6">
-        <v>1.7939539202546873</v>
+        <v>1.7953412883463631</v>
       </c>
       <c r="Q30">
-        <v>0.219446</v>
+        <v>0.21951100000000001</v>
       </c>
       <c r="R30">
-        <v>0.39271400000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0.39321</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1.7912997526319865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2362,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9.7E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="D31">
-        <v>1.06E-4</v>
+        <v>9.8999999999999994E-5</v>
       </c>
       <c r="E31">
         <v>3521310</v>
       </c>
       <c r="F31">
-        <v>1.0927835051546393</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="G31">
         <v>9301</v>
@@ -2395,39 +2490,42 @@
         <v>39.355458448524075</v>
       </c>
       <c r="N31" s="5">
-        <v>2.7130000000000001E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="O31" s="5">
-        <v>8.0260000000000001E-3</v>
+        <v>7.6350000000000003E-3</v>
       </c>
       <c r="P31" s="5">
-        <v>2.9583486914854404</v>
+        <v>2.9941176470588236</v>
       </c>
       <c r="Q31">
-        <v>2.81E-3</v>
+        <v>2.64E-3</v>
       </c>
       <c r="R31">
-        <v>8.1320000000000003E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>7.7340000000000004E-3</v>
+      </c>
+      <c r="S31">
+        <v>2.9295454545454547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
       </c>
-      <c r="C32" s="4">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.5699999999999999E-4</v>
+      <c r="C32">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="D32">
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="E32" s="4">
         <v>7248722</v>
       </c>
       <c r="F32" s="4">
-        <v>0.98124999999999984</v>
+        <v>1.0628930817610063</v>
       </c>
       <c r="G32" s="4">
         <v>16521</v>
@@ -2451,22 +2549,25 @@
         <v>42.431013359016191</v>
       </c>
       <c r="N32" s="6">
-        <v>5.8849999999999996E-3</v>
+        <v>5.8829999999999993E-3</v>
       </c>
       <c r="O32" s="6">
-        <v>1.8626999999999998E-2</v>
+        <v>1.8600000000000002E-2</v>
       </c>
       <c r="P32" s="6">
-        <v>3.1651656754460493</v>
+        <v>3.1616522182559925</v>
       </c>
       <c r="Q32">
-        <v>6.045E-3</v>
+        <v>6.0419999999999996E-3</v>
       </c>
       <c r="R32">
-        <v>1.8783999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1.8769000000000001E-2</v>
+      </c>
+      <c r="S32" s="4">
+        <v>3.1064217146640187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2474,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.1800000000000001E-4</v>
+        <v>2.1599999999999999E-4</v>
       </c>
       <c r="D33">
-        <v>2.5700000000000001E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="E33">
         <v>14843582</v>
       </c>
       <c r="F33">
-        <v>1.1788990825688073</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="G33">
         <v>43695</v>
@@ -2507,39 +2608,42 @@
         <v>33.200173288685455</v>
       </c>
       <c r="N33" s="5">
-        <v>1.082E-2</v>
+        <v>1.0806000000000001E-2</v>
       </c>
       <c r="O33" s="5">
-        <v>2.3297999999999999E-2</v>
+        <v>2.3299999999999998E-2</v>
       </c>
       <c r="P33" s="5">
-        <v>2.153234750462107</v>
+        <v>2.1562095132333883</v>
       </c>
       <c r="Q33">
-        <v>1.1037999999999999E-2</v>
+        <v>1.1022000000000001E-2</v>
       </c>
       <c r="R33">
-        <v>2.3555E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2.3539999999999998E-2</v>
+      </c>
+      <c r="S33">
+        <v>2.1357285429141712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34" s="4">
-        <v>5.0600000000000005E-4</v>
-      </c>
-      <c r="D34" s="4">
-        <v>4.6099999999999998E-4</v>
+      <c r="C34">
+        <v>5.0900000000000001E-4</v>
+      </c>
+      <c r="D34">
+        <v>4.5899999999999999E-4</v>
       </c>
       <c r="E34" s="4">
         <v>30290104</v>
       </c>
       <c r="F34" s="4">
-        <v>0.91106719367588918</v>
+        <v>0.9017681728880157</v>
       </c>
       <c r="G34" s="4">
         <v>60416</v>
@@ -2563,22 +2667,25 @@
         <v>40.037836119987993</v>
       </c>
       <c r="N34" s="6">
-        <v>3.4608E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="O34" s="6">
         <v>7.0545999999999998E-2</v>
       </c>
       <c r="P34" s="6">
-        <v>2.0384304207119741</v>
+        <v>2.0389017341040461</v>
       </c>
       <c r="Q34">
-        <v>3.5113999999999999E-2</v>
+        <v>3.5109000000000001E-2</v>
       </c>
       <c r="R34">
-        <v>7.1007000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+        <v>7.1004999999999999E-2</v>
+      </c>
+      <c r="S34" s="4">
+        <v>2.0224159047537666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2586,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>6.87E-4</v>
+        <v>6.7599999999999995E-4</v>
       </c>
       <c r="D35">
-        <v>7.8799999999999996E-4</v>
+        <v>7.8700000000000005E-4</v>
       </c>
       <c r="E35">
         <v>61604169</v>
       </c>
       <c r="F35">
-        <v>1.1470160116448325</v>
+        <v>1.1642011834319528</v>
       </c>
       <c r="G35">
         <v>189948</v>
@@ -2619,39 +2726,42 @@
         <v>29.119794905964071</v>
       </c>
       <c r="N35" s="5">
-        <v>5.7480999999999997E-2</v>
+        <v>5.7502999999999999E-2</v>
       </c>
       <c r="O35" s="5">
-        <v>0.100342</v>
+        <v>0.10046000000000001</v>
       </c>
       <c r="P35" s="5">
-        <v>1.7456550860284268</v>
+        <v>1.7470392849068745</v>
       </c>
       <c r="Q35">
-        <v>5.8167999999999997E-2</v>
+        <v>5.8179000000000002E-2</v>
       </c>
       <c r="R35">
-        <v>0.10113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.101247</v>
+      </c>
+      <c r="S35">
+        <v>1.7402671066879802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
       </c>
-      <c r="C36" s="4">
-        <v>1.6429999999999999E-3</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1.5579999999999999E-3</v>
+      <c r="C36">
+        <v>1.6180000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>1.557E-3</v>
       </c>
       <c r="E36" s="4">
         <v>124942349</v>
       </c>
       <c r="F36" s="4">
-        <v>0.94826536822884966</v>
+        <v>0.96229913473423978</v>
       </c>
       <c r="G36" s="4">
         <v>280499</v>
@@ -2675,39 +2785,42 @@
         <v>33.950847879000492</v>
       </c>
       <c r="N36" s="6">
-        <v>0.17302899999999999</v>
+        <v>0.17312900000000001</v>
       </c>
       <c r="O36" s="6">
-        <v>0.28906599999999999</v>
+        <v>0.28941600000000001</v>
       </c>
       <c r="P36" s="6">
-        <v>1.6706216876939703</v>
+        <v>1.6716783438938594</v>
       </c>
       <c r="Q36">
-        <v>0.17467199999999999</v>
+        <v>0.17474700000000001</v>
       </c>
       <c r="R36">
-        <v>0.29062399999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.29097299999999998</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1.6651101306460194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>4.0769999999999999E-3</v>
       </c>
-      <c r="D37" s="4">
-        <v>3.107E-3</v>
+      <c r="D37">
+        <v>3.1050000000000001E-3</v>
       </c>
       <c r="E37" s="4">
         <v>252819809</v>
       </c>
       <c r="F37" s="4">
-        <v>0.76207996075545748</v>
+        <v>0.76158940397350994</v>
       </c>
       <c r="G37" s="4">
         <v>403463</v>
@@ -2731,39 +2844,42 @@
         <v>40.424786815060266</v>
       </c>
       <c r="N37" s="6">
-        <v>0.52744599999999997</v>
+        <v>0.52760200000000002</v>
       </c>
       <c r="O37" s="6">
-        <v>0.89530799999999999</v>
+        <v>0.89531300000000003</v>
       </c>
       <c r="P37" s="6">
-        <v>1.6974401170925555</v>
+        <v>1.6969476992126642</v>
       </c>
       <c r="Q37">
-        <v>0.53152299999999997</v>
+        <v>0.53167900000000001</v>
       </c>
       <c r="R37">
-        <v>0.89841499999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.89841800000000005</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1.6897752215152377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
       </c>
-      <c r="C38" s="4">
-        <v>8.4259999999999995E-3</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5.476E-3</v>
+      <c r="C38">
+        <v>8.4329999999999995E-3</v>
+      </c>
+      <c r="D38">
+        <v>5.4790000000000004E-3</v>
       </c>
       <c r="E38" s="4">
         <v>510588330</v>
       </c>
       <c r="F38" s="4">
-        <v>0.64989318775219562</v>
+        <v>0.64970947468279383</v>
       </c>
       <c r="G38" s="4">
         <v>1269873</v>
@@ -2787,19 +2903,22 @@
         <v>28.541432669210195</v>
       </c>
       <c r="N38" s="6">
-        <v>0.82624500000000001</v>
+        <v>0.82625599999999999</v>
       </c>
       <c r="O38" s="6">
-        <v>1.26427</v>
+        <v>1.264254</v>
       </c>
       <c r="P38" s="6">
-        <v>1.5301393654424535</v>
+        <v>1.5300996301388432</v>
       </c>
       <c r="Q38">
-        <v>0.83467100000000005</v>
+        <v>0.83468900000000001</v>
       </c>
       <c r="R38">
-        <v>1.269746</v>
+        <v>1.269733</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1.5212049038623967</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A66FF-8945-4969-8856-7C076EB37C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D89562-D454-4553-A63C-03C2E06DBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Triangle-count</t>
   </si>
@@ -121,12 +121,6 @@
     <t>Com-Orkut</t>
   </si>
   <si>
-    <t>graph500-scale24-ef16</t>
-  </si>
-  <si>
-    <t>graph500-scale25-ef16</t>
-  </si>
-  <si>
     <t>Twitter7</t>
   </si>
   <si>
@@ -234,6 +228,10 @@
   </si>
   <si>
     <t>speed-up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex-count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,23 +653,24 @@
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" style="5" customWidth="1"/>
-    <col min="17" max="17" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="5" customWidth="1"/>
+    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -685,52 +684,55 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -744,60 +746,63 @@
         <v>4.8999999999999998E-5</v>
       </c>
       <c r="E2">
+        <v>26475</v>
+      </c>
+      <c r="F2">
         <v>53381</v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2:F38">D2:D38/C2:C38</f>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2:G36">D2:D36/C2:C36</f>
         <v>1.6896551724137931</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>15709</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42646</v>
       </c>
-      <c r="K2" cm="1">
-        <f t="array" ref="K2:K38">I2:I38-G2:G38</f>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2:L36">J2:J36-H2:H36</f>
         <v>15709</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" ref="L2:L38">J2:J38-H2:H38</f>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:M36">K2:K36-I2:I36</f>
         <v>42646</v>
       </c>
-      <c r="M2" cm="1">
-        <f t="array" ref="M2:M38">(L2:L38)*2/K2:K38</f>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2:N36">(M2:M36)*2/L2:L36</f>
         <v>5.4294990133044747</v>
       </c>
-      <c r="N2" s="5" cm="1">
-        <f t="array" ref="N2:N38">Q2:Q38-C2:C38</f>
+      <c r="O2" s="5" cm="1">
+        <f t="array" ref="O2:O36">R2:R36-C2:C36</f>
         <v>5.2000000000000004E-5</v>
       </c>
-      <c r="O2" s="5" cm="1">
-        <f t="array" ref="O2:O38">R2:R38-D2:D38</f>
+      <c r="P2" s="5" cm="1">
+        <f t="array" ref="P2:P36">S2:S36-D2:D36</f>
         <v>3.9999999999999996E-5</v>
       </c>
-      <c r="P2" s="5" cm="1">
-        <f t="array" ref="P2:P38">O2:O38/N2:N38</f>
+      <c r="Q2" s="5" cm="1">
+        <f t="array" ref="Q2:Q36">P2:P36/O2:O36</f>
         <v>0.76923076923076916</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>8.8999999999999995E-5</v>
       </c>
-      <c r="S2" cm="1">
-        <f t="array" ref="S2:S38">R2:R38/Q2:Q38</f>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2:T36">S2:S36/R2:R36</f>
         <v>1.0987654320987654</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -811,52 +816,55 @@
         <v>4.8999999999999998E-5</v>
       </c>
       <c r="E3">
+        <v>62586</v>
+      </c>
+      <c r="F3">
         <v>147892</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.2272727272727271</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>31477</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>117576</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>31477</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>117576</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>7.4705975791848012</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>2.1000000000000002E-5</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>2.2857142857142856</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9.7E-5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2.2558139534883721</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -870,52 +878,55 @@
         <v>5.3999999999999998E-5</v>
       </c>
       <c r="E4">
+        <v>265214</v>
+      </c>
+      <c r="F4">
         <v>364481</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.3478260869565215</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3611</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>35921</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>151221</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>35891</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>147610</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8.2254604218327714</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>2.9E-4</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>1.8954248366013071</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.76E-4</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3.4400000000000001E-4</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1.9545454545454546</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -929,52 +940,55 @@
         <v>7.1000000000000005E-5</v>
       </c>
       <c r="E5">
+        <v>82168</v>
+      </c>
+      <c r="F5">
         <v>504230</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.2187500000000004</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>103</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>51338</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>473603</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>51337</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>473500</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>18.446734324171651</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>2.8199999999999997E-4</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>5.6099999999999998E-4</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>1.9893617021276597</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3.1399999999999999E-4</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6.3199999999999997E-4</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2.0127388535031847</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -988,52 +1002,55 @@
         <v>1.4799999999999999E-4</v>
       </c>
       <c r="E6">
+        <v>325729</v>
+      </c>
+      <c r="F6">
         <v>1090108</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.9019607843137254</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>487</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>62122</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>151666</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>918795</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>151179</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>856673</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>11.333227498528235</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>4.5000000000000004E-4</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>2.81E-4</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>0.62444444444444436</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>4.2900000000000002E-4</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.85628742514970058</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1047,52 +1064,55 @@
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="E7">
+        <v>317080</v>
+      </c>
+      <c r="F7">
         <v>1049866</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1492</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>242509</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>977594</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>242495</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>976102</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8.0504917627167565</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>2.9E-4</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>3.3599999999999993E-4</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>1.1586206896551721</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5.5599999999999996E-4</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.6352941176470586</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1106,52 +1126,55 @@
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="E8">
+        <v>403394</v>
+      </c>
+      <c r="F8">
         <v>2443408</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.1153846153846159</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>377343</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2421872</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>377343</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2421872</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>12.836448536212412</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>4.9399999999999997E-4</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>5.889999999999999E-4</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>1.1923076923076921</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>5.9800000000000001E-4</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>9.1299999999999997E-4</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.5267558528428093</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1165,52 +1188,55 @@
         <v>6.5499999999999998E-4</v>
       </c>
       <c r="E9">
+        <v>1965206</v>
+      </c>
+      <c r="F9">
         <v>2766607</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6.6161616161616168</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>856203</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1928091</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>856203</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1928091</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4.5038174358183749</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>2.8700000000000004E-4</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>3.1199999999999999E-4</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>1.0871080139372822</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3.86E-4</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>9.6699999999999998E-4</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2.5051813471502591</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1224,52 +1250,55 @@
         <v>4.8500000000000003E-4</v>
       </c>
       <c r="E10">
+        <v>2394385</v>
+      </c>
+      <c r="F10">
         <v>4659565</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.1452991452991457</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1411</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>203200</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>621012</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2888957</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>619601</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2685757</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>8.6693113794199821</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>3.3859999999999997E-3</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>2.3513888888888883</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.557E-3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3.8709999999999999E-3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2.4861913937058446</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1283,52 +1312,55 @@
         <v>4.7899999999999999E-4</v>
       </c>
       <c r="E11">
+        <v>685230</v>
+      </c>
+      <c r="F11">
         <v>6649470</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.00418410041841</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1854</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>209701</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>608489</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6581031</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>606635</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6371330</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>21.00548105532981</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>1.4629999999999999E-3</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>1.359E-3</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>0.9289131920710868</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.702E-3</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.838E-3</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.0799059929494712</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1342,52 +1374,55 @@
         <v>1.0820000000000001E-3</v>
       </c>
       <c r="E12">
+        <v>1696415</v>
+      </c>
+      <c r="F12">
         <v>11095298</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.5458823529411769</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>988</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>116340</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1423165</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10832625</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1422177</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10716285</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>15.070254968263445</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>2.2859999999999998E-3</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>3.4030000000000002E-3</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>1.488626421697288</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2.7109999999999999E-3</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>4.4850000000000003E-3</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.6543710807819993</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1401,52 +1436,55 @@
         <v>2.189E-3</v>
       </c>
       <c r="E13">
+        <v>3774768</v>
+      </c>
+      <c r="F13">
         <v>16518947</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.3380195599022005</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2944946</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15745211</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2944946</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>15745211</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10.693038853683564</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>3.2049999999999995E-3</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>5.8259999999999996E-3</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>1.8177847113884558</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>4.8409999999999998E-3</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>8.0149999999999996E-3</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1.6556496591613303</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1459,53 +1497,56 @@
       <c r="D14" s="4">
         <v>1.1230000000000001E-3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
+        <v>1632803</v>
+      </c>
+      <c r="F14" s="4">
         <v>22301964</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>0.88425196850393706</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
         <v>1462551</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>22132301</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>1462551</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>22132301</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>30.265339123216901</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>6.4869999999999997E-3</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>1.1535E-2</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <v>1.7781717280715277</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>7.757E-3</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.2658000000000001E-2</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>1.6318164238752095</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1519,52 +1560,55 @@
         <v>1.451E-3</v>
       </c>
       <c r="E15">
+        <v>2601977</v>
+      </c>
+      <c r="F15">
         <v>28183518</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.2433590402742074</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>37378</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5559907</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1947518</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>27552833</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1910140</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>21992926</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>23.027554001277394</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>1.6233999999999998E-2</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>3.2257000000000001E-2</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>1.987002587162745</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.7401E-2</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3.3708000000000002E-2</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.9371300499971267</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1578,52 +1622,55 @@
         <v>2.3410000000000002E-3</v>
       </c>
       <c r="E16">
+        <v>3997962</v>
+      </c>
+      <c r="F16">
         <v>34681189</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.320360970107163</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9274</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1380556</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3132157</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>33823008</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3122883</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>32442452</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>20.777244616593066</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>8.005E-3</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>1.5366000000000001E-2</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>1.9195502810743288</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>9.7780000000000002E-3</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.7707000000000001E-2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.8109020249539782</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1637,52 +1684,55 @@
         <v>2.7390000000000001E-3</v>
       </c>
       <c r="E17">
+        <v>4847571</v>
+      </c>
+      <c r="F17">
         <v>42851237</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.1960698689956333</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>18936</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2875108</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3680794</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>41695681</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3661858</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>38820573</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>21.202664330511997</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>1.0779E-2</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>2.0423999999999998E-2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>1.8947954355691621</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1.3069000000000001E-2</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.3163E-2</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.7723620782003213</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1695,53 +1745,56 @@
       <c r="D18" s="4">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
+        <v>3072441</v>
+      </c>
+      <c r="F18" s="4">
         <v>117185083</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>0.32543534113616895</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>121341</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>19727089</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>3003794</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>117116597</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>2882453</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>97389508</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>67.574047521329916</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>5.0141000000000005E-2</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>9.289E-2</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>1.8525757364232862</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>5.7147000000000003E-2</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>9.5170000000000005E-2</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>1.6653542618160184</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1749,58 +1802,61 @@
         <v>0</v>
       </c>
       <c r="C19" s="4">
-        <v>5.4310000000000001E-3</v>
+        <v>6.0440000000000001E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>4.6340000000000001E-3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>260261843</v>
+        <v>2.8472999999999998E-2</v>
+      </c>
+      <c r="E19">
+        <v>41652230</v>
       </c>
       <c r="F19" s="4">
-        <v>0.85324986190388508</v>
+        <v>1202513046</v>
       </c>
       <c r="G19" s="4">
-        <v>536055</v>
+        <v>0.47109530112508269</v>
       </c>
       <c r="H19" s="4">
-        <v>163635027</v>
+        <v>1892560</v>
       </c>
       <c r="I19" s="4">
-        <v>6690713</v>
+        <v>519397580</v>
       </c>
       <c r="J19" s="4">
-        <v>258097170</v>
+        <v>39680179</v>
       </c>
       <c r="K19" s="4">
-        <v>6154658</v>
+        <v>1200544694</v>
       </c>
       <c r="L19" s="4">
-        <v>94462143</v>
+        <v>37787619</v>
       </c>
       <c r="M19" s="4">
-        <v>30.696146885822088</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0.42857099999999998</v>
+        <v>681147114</v>
+      </c>
+      <c r="N19" s="4">
+        <v>36.051338085101364</v>
       </c>
       <c r="O19" s="6">
-        <v>0.68981300000000001</v>
+        <v>0.64137</v>
       </c>
       <c r="P19" s="6">
-        <v>1.609565276231943</v>
-      </c>
-      <c r="Q19">
-        <v>0.434002</v>
+        <v>1.0232350000000001</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1.5953895567301248</v>
       </c>
       <c r="R19">
-        <v>0.69444700000000004</v>
-      </c>
-      <c r="S19" s="4">
-        <v>1.6001009211939117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.70181000000000004</v>
+      </c>
+      <c r="S19">
+        <v>1.0517080000000001</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1.498565138712757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1808,176 +1864,185 @@
         <v>0</v>
       </c>
       <c r="C20" s="4">
-        <v>1.5079E-2</v>
+        <v>0.202463</v>
       </c>
       <c r="D20" s="4">
-        <v>9.0039999999999999E-3</v>
-      </c>
-      <c r="E20" s="4">
-        <v>523467448</v>
+        <v>3.6102000000000002E-2</v>
+      </c>
+      <c r="E20">
+        <v>65608366</v>
       </c>
       <c r="F20" s="4">
-        <v>0.59712182505471179</v>
+        <v>1806067135</v>
       </c>
       <c r="G20" s="4">
-        <v>878869</v>
+        <v>0.17831406232249844</v>
       </c>
       <c r="H20" s="4">
-        <v>315741003</v>
+        <v>4258252</v>
       </c>
       <c r="I20" s="4">
-        <v>12791662</v>
+        <v>636634507</v>
       </c>
       <c r="J20" s="4">
-        <v>519225583</v>
+        <v>51429670</v>
       </c>
       <c r="K20" s="4">
-        <v>11912793</v>
+        <v>1791953648</v>
       </c>
       <c r="L20" s="4">
-        <v>203484580</v>
+        <v>47171418</v>
       </c>
       <c r="M20" s="4">
-        <v>34.162363099904447</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.1517219999999999</v>
+        <v>1155319141</v>
+      </c>
+      <c r="N20" s="4">
+        <v>48.983863109648304</v>
       </c>
       <c r="O20" s="6">
-        <v>1.8926829999999999</v>
+        <v>0.88049299999999997</v>
       </c>
       <c r="P20" s="6">
-        <v>1.6433505655010499</v>
-      </c>
-      <c r="Q20">
-        <v>1.166801</v>
+        <v>1.719401</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1.9527707772804554</v>
       </c>
       <c r="R20">
-        <v>1.9016869999999999</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1.6298297653155935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+        <v>1.082956</v>
+      </c>
+      <c r="S20">
+        <v>1.755503</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1.6210289245361769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6.0440000000000001E-2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.8472999999999998E-2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1202513046</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.47109530112508269</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1892560</v>
-      </c>
-      <c r="H21" s="4">
-        <v>519397580</v>
-      </c>
-      <c r="I21" s="4">
-        <v>39680179</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1200544694</v>
-      </c>
-      <c r="K21" s="4">
-        <v>37787619</v>
-      </c>
-      <c r="L21" s="4">
-        <v>681147114</v>
-      </c>
-      <c r="M21" s="4">
-        <v>36.051338085101364</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0.64137</v>
-      </c>
-      <c r="O21" s="6">
-        <v>1.0232350000000001</v>
-      </c>
-      <c r="P21" s="6">
-        <v>1.5953895567301248</v>
-      </c>
-      <c r="Q21">
-        <v>0.70181000000000004</v>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1.07E-4</v>
+      </c>
+      <c r="D21">
+        <v>2.1699999999999999E-4</v>
+      </c>
+      <c r="E21">
+        <v>358937</v>
+      </c>
+      <c r="F21">
+        <v>2063645</v>
+      </c>
+      <c r="G21">
+        <v>2.02803738317757</v>
+      </c>
+      <c r="H21">
+        <v>333</v>
+      </c>
+      <c r="I21">
+        <v>36473</v>
+      </c>
+      <c r="J21">
+        <v>218888</v>
+      </c>
+      <c r="K21">
+        <v>1925411</v>
+      </c>
+      <c r="L21">
+        <v>218555</v>
+      </c>
+      <c r="M21">
+        <v>1888938</v>
+      </c>
+      <c r="N21">
+        <v>17.285699251904553</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1.193E-3</v>
+      </c>
+      <c r="P21" s="5">
+        <v>2.2919999999999998E-3</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1.9212070410729252</v>
       </c>
       <c r="R21">
-        <v>1.0517080000000001</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1.498565138712757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="S21">
+        <v>2.5089999999999999E-3</v>
+      </c>
+      <c r="T21">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.202463</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3.6102000000000002E-2</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1806067135</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.17831406232249844</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4258252</v>
-      </c>
-      <c r="H22" s="4">
-        <v>636634507</v>
-      </c>
-      <c r="I22" s="4">
-        <v>51429670</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1791953648</v>
-      </c>
-      <c r="K22" s="4">
-        <v>47171418</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1155319141</v>
-      </c>
-      <c r="M22" s="4">
-        <v>48.983863109648304</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0.88049299999999997</v>
-      </c>
-      <c r="O22" s="6">
-        <v>1.719401</v>
-      </c>
-      <c r="P22" s="6">
-        <v>1.9527707772804554</v>
-      </c>
-      <c r="Q22">
-        <v>1.082956</v>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1.64E-4</v>
+      </c>
+      <c r="D22">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="E22">
+        <v>456857</v>
+      </c>
+      <c r="F22">
+        <v>4081946</v>
+      </c>
+      <c r="G22">
+        <v>1.7560975609756098</v>
+      </c>
+      <c r="H22">
+        <v>4868</v>
+      </c>
+      <c r="I22">
+        <v>630874</v>
+      </c>
+      <c r="J22">
+        <v>308118</v>
+      </c>
+      <c r="K22">
+        <v>3934188</v>
+      </c>
+      <c r="L22">
+        <v>303250</v>
+      </c>
+      <c r="M22">
+        <v>3303314</v>
+      </c>
+      <c r="N22">
+        <v>21.786077493816983</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2.4909999999999997E-3</v>
+      </c>
+      <c r="P22" s="5">
+        <v>5.5019999999999999E-3</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>2.2087515054195106</v>
       </c>
       <c r="R22">
-        <v>1.755503</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1.6210289245361769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+        <v>2.6549999999999998E-3</v>
+      </c>
+      <c r="S22">
+        <v>5.79E-3</v>
+      </c>
+      <c r="T22">
+        <v>2.1807909604519775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1985,58 +2050,61 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.07E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="D23">
-        <v>2.1699999999999999E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="E23">
-        <v>2063645</v>
+        <v>559175</v>
       </c>
       <c r="F23">
-        <v>2.02803738317757</v>
+        <v>8029377</v>
       </c>
       <c r="G23">
-        <v>333</v>
+        <v>1.5022421524663678</v>
       </c>
       <c r="H23">
-        <v>36473</v>
+        <v>21068</v>
       </c>
       <c r="I23">
-        <v>218888</v>
+        <v>3145701</v>
       </c>
       <c r="J23">
-        <v>1925411</v>
+        <v>408682</v>
       </c>
       <c r="K23">
-        <v>218555</v>
+        <v>7879355</v>
       </c>
       <c r="L23">
-        <v>1888938</v>
+        <v>387614</v>
       </c>
       <c r="M23">
-        <v>17.285699251904553</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1.193E-3</v>
+        <v>4733654</v>
+      </c>
+      <c r="N23">
+        <v>24.424577027661538</v>
       </c>
       <c r="O23" s="5">
-        <v>2.2919999999999998E-3</v>
+        <v>5.2209999999999999E-3</v>
       </c>
       <c r="P23" s="5">
-        <v>1.9212070410729252</v>
-      </c>
-      <c r="Q23">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1245E-2</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>2.1538019536487263</v>
       </c>
       <c r="R23">
-        <v>2.5089999999999999E-3</v>
+        <v>5.4440000000000001E-3</v>
       </c>
       <c r="S23">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+        <v>1.158E-2</v>
+      </c>
+      <c r="T23">
+        <v>2.1271124173401912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2044,176 +2112,185 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.64E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="D24">
-        <v>2.8800000000000001E-4</v>
+        <v>3.8699999999999997E-4</v>
       </c>
       <c r="E24">
-        <v>4081946</v>
+        <v>660444</v>
       </c>
       <c r="F24">
-        <v>1.7560975609756098</v>
+        <v>15673919</v>
       </c>
       <c r="G24">
-        <v>4868</v>
+        <v>1.1552238805970148</v>
       </c>
       <c r="H24">
-        <v>630874</v>
+        <v>40184</v>
       </c>
       <c r="I24">
-        <v>308118</v>
+        <v>7991992</v>
       </c>
       <c r="J24">
-        <v>3934188</v>
+        <v>517284</v>
       </c>
       <c r="K24">
-        <v>303250</v>
+        <v>15530946</v>
       </c>
       <c r="L24">
-        <v>3303314</v>
+        <v>477100</v>
       </c>
       <c r="M24">
-        <v>21.786077493816983</v>
-      </c>
-      <c r="N24" s="5">
-        <v>2.4909999999999997E-3</v>
+        <v>7538954</v>
+      </c>
+      <c r="N24">
+        <v>31.603244602808637</v>
       </c>
       <c r="O24" s="5">
-        <v>5.5019999999999999E-3</v>
+        <v>1.3774999999999999E-2</v>
       </c>
       <c r="P24" s="5">
-        <v>2.2087515054195106</v>
-      </c>
-      <c r="Q24">
-        <v>2.6549999999999998E-3</v>
+        <v>3.1594000000000004E-2</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>2.2935753176043563</v>
       </c>
       <c r="R24">
-        <v>5.79E-3</v>
+        <v>1.4109999999999999E-2</v>
       </c>
       <c r="S24">
-        <v>2.1807909604519775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+        <v>3.1981000000000002E-2</v>
+      </c>
+      <c r="T24">
+        <v>2.2665485471296956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.23E-4</v>
+        <v>5.0600000000000005E-4</v>
       </c>
       <c r="D25">
-        <v>3.3500000000000001E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="E25">
-        <v>8029377</v>
-      </c>
-      <c r="F25">
-        <v>1.5022421524663678</v>
-      </c>
-      <c r="G25">
-        <v>21068</v>
-      </c>
-      <c r="H25">
-        <v>3145701</v>
-      </c>
-      <c r="I25">
-        <v>408682</v>
-      </c>
-      <c r="J25">
-        <v>7879355</v>
-      </c>
-      <c r="K25">
-        <v>387614</v>
-      </c>
-      <c r="L25">
-        <v>4733654</v>
-      </c>
-      <c r="M25">
-        <v>24.424577027661538</v>
-      </c>
-      <c r="N25" s="5">
-        <v>5.2209999999999999E-3</v>
-      </c>
-      <c r="O25" s="5">
-        <v>1.1245E-2</v>
-      </c>
-      <c r="P25" s="5">
-        <v>2.1538019536487263</v>
-      </c>
-      <c r="Q25">
-        <v>5.4440000000000001E-3</v>
+        <v>755026</v>
+      </c>
+      <c r="F25" s="4">
+        <v>30290104</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.90513833992094861</v>
+      </c>
+      <c r="H25" s="4">
+        <v>60416</v>
+      </c>
+      <c r="I25" s="4">
+        <v>18823438</v>
+      </c>
+      <c r="J25" s="4">
+        <v>626806</v>
+      </c>
+      <c r="K25" s="4">
+        <v>30161953</v>
+      </c>
+      <c r="L25" s="4">
+        <v>566390</v>
+      </c>
+      <c r="M25" s="4">
+        <v>11338515</v>
+      </c>
+      <c r="N25" s="4">
+        <v>40.037836119987993</v>
+      </c>
+      <c r="O25" s="6">
+        <v>3.4605000000000004E-2</v>
+      </c>
+      <c r="P25" s="6">
+        <v>7.0555999999999994E-2</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>2.0388961132784273</v>
       </c>
       <c r="R25">
-        <v>1.158E-2</v>
+        <v>3.5111000000000003E-2</v>
       </c>
       <c r="S25">
-        <v>2.1271124173401912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+        <v>7.1013999999999994E-2</v>
+      </c>
+      <c r="T25" s="4">
+        <v>2.0225570334083334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3.3500000000000001E-4</v>
+        <v>4.95E-4</v>
       </c>
       <c r="D26">
-        <v>3.8699999999999997E-4</v>
+        <v>4.7399999999999997E-4</v>
       </c>
       <c r="E26">
-        <v>15673919</v>
-      </c>
-      <c r="F26">
-        <v>1.1552238805970148</v>
-      </c>
-      <c r="G26">
-        <v>40184</v>
-      </c>
-      <c r="H26">
-        <v>7991992</v>
-      </c>
-      <c r="I26">
-        <v>517284</v>
-      </c>
-      <c r="J26">
-        <v>15530946</v>
-      </c>
-      <c r="K26">
-        <v>477100</v>
-      </c>
-      <c r="L26">
-        <v>7538954</v>
-      </c>
-      <c r="M26">
-        <v>31.603244602808637</v>
-      </c>
-      <c r="N26" s="5">
-        <v>1.3774999999999999E-2</v>
-      </c>
-      <c r="O26" s="5">
-        <v>3.1594000000000004E-2</v>
-      </c>
-      <c r="P26" s="5">
-        <v>2.2935753176043563</v>
-      </c>
-      <c r="Q26">
-        <v>1.4109999999999999E-2</v>
+        <v>837036</v>
+      </c>
+      <c r="F26" s="4">
+        <v>57814555</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.95757575757575752</v>
+      </c>
+      <c r="H26" s="4">
+        <v>137879</v>
+      </c>
+      <c r="I26" s="4">
+        <v>46629291</v>
+      </c>
+      <c r="J26" s="4">
+        <v>728771</v>
+      </c>
+      <c r="K26" s="4">
+        <v>57706306</v>
+      </c>
+      <c r="L26" s="4">
+        <v>590892</v>
+      </c>
+      <c r="M26" s="4">
+        <v>11077015</v>
+      </c>
+      <c r="N26" s="4">
+        <v>37.492519783649129</v>
+      </c>
+      <c r="O26" s="6">
+        <v>5.4713999999999999E-2</v>
+      </c>
+      <c r="P26" s="6">
+        <v>9.9623000000000003E-2</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1.82079540885331</v>
       </c>
       <c r="R26">
-        <v>3.1981000000000002E-2</v>
+        <v>5.5209000000000001E-2</v>
       </c>
       <c r="S26">
-        <v>2.2665485471296956</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.10009700000000001</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1.8130558423445453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2221,58 +2298,61 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5.0600000000000005E-4</v>
+        <v>5.4600000000000004E-4</v>
       </c>
       <c r="D27">
-        <v>4.5800000000000002E-4</v>
-      </c>
-      <c r="E27" s="4">
-        <v>30290104</v>
+        <v>4.7899999999999999E-4</v>
+      </c>
+      <c r="E27">
+        <v>904525</v>
       </c>
       <c r="F27" s="4">
-        <v>0.90513833992094861</v>
+        <v>108747344</v>
       </c>
       <c r="G27" s="4">
-        <v>60416</v>
+        <v>0.87728937728937717</v>
       </c>
       <c r="H27" s="4">
-        <v>18823438</v>
+        <v>228316</v>
       </c>
       <c r="I27" s="4">
-        <v>626806</v>
+        <v>96371407</v>
       </c>
       <c r="J27" s="4">
-        <v>30161953</v>
+        <v>819137</v>
       </c>
       <c r="K27" s="4">
-        <v>566390</v>
+        <v>108661967</v>
       </c>
       <c r="L27" s="4">
-        <v>11338515</v>
+        <v>590821</v>
       </c>
       <c r="M27" s="4">
-        <v>40.037836119987993</v>
-      </c>
-      <c r="N27" s="6">
-        <v>3.4605000000000004E-2</v>
+        <v>12290560</v>
+      </c>
+      <c r="N27" s="4">
+        <v>41.605020810025373</v>
       </c>
       <c r="O27" s="6">
-        <v>7.0555999999999994E-2</v>
+        <v>9.6797999999999995E-2</v>
       </c>
       <c r="P27" s="6">
-        <v>2.0388961132784273</v>
-      </c>
-      <c r="Q27">
-        <v>3.5111000000000003E-2</v>
+        <v>0.185775</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>1.9192028760924813</v>
       </c>
       <c r="R27">
-        <v>7.1013999999999994E-2</v>
-      </c>
-      <c r="S27" s="4">
-        <v>2.0225570334083334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>9.7344E-2</v>
+      </c>
+      <c r="S27">
+        <v>0.186254</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1.9133588099934253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -2280,117 +2360,123 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4.95E-4</v>
+        <v>7.8100000000000001E-4</v>
       </c>
       <c r="D28">
-        <v>4.7399999999999997E-4</v>
-      </c>
-      <c r="E28" s="4">
-        <v>57814555</v>
+        <v>5.1500000000000005E-4</v>
+      </c>
+      <c r="E28">
+        <v>955990</v>
       </c>
       <c r="F28" s="4">
-        <v>0.95757575757575752</v>
+        <v>201086863</v>
       </c>
       <c r="G28" s="4">
-        <v>137879</v>
+        <v>0.65941101152368764</v>
       </c>
       <c r="H28" s="4">
-        <v>46629291</v>
+        <v>263944</v>
       </c>
       <c r="I28" s="4">
-        <v>728771</v>
+        <v>183139066</v>
       </c>
       <c r="J28" s="4">
-        <v>57706306</v>
+        <v>892588</v>
       </c>
       <c r="K28" s="4">
-        <v>590892</v>
+        <v>201023463</v>
       </c>
       <c r="L28" s="4">
-        <v>11077015</v>
+        <v>628644</v>
       </c>
       <c r="M28" s="4">
-        <v>37.492519783649129</v>
-      </c>
-      <c r="N28" s="6">
-        <v>5.4713999999999999E-2</v>
+        <v>17884397</v>
+      </c>
+      <c r="N28" s="4">
+        <v>56.898330374584027</v>
       </c>
       <c r="O28" s="6">
-        <v>9.9623000000000003E-2</v>
+        <v>0.21873000000000001</v>
       </c>
       <c r="P28" s="6">
-        <v>1.82079540885331</v>
-      </c>
-      <c r="Q28">
-        <v>5.5209000000000001E-2</v>
+        <v>0.39269500000000002</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>1.7953412883463631</v>
       </c>
       <c r="R28">
-        <v>0.10009700000000001</v>
-      </c>
-      <c r="S28" s="4">
-        <v>1.8130558423445453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+        <v>0.21951100000000001</v>
+      </c>
+      <c r="S28">
+        <v>0.39321</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1.7912997526319865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>5.4600000000000004E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="D29">
-        <v>4.7899999999999999E-4</v>
-      </c>
-      <c r="E29" s="4">
-        <v>108747344</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.87728937728937717</v>
-      </c>
-      <c r="G29" s="4">
-        <v>228316</v>
-      </c>
-      <c r="H29" s="4">
-        <v>96371407</v>
-      </c>
-      <c r="I29" s="4">
-        <v>819137</v>
-      </c>
-      <c r="J29" s="4">
-        <v>108661967</v>
-      </c>
-      <c r="K29" s="4">
-        <v>590821</v>
-      </c>
-      <c r="L29" s="4">
-        <v>12290560</v>
-      </c>
-      <c r="M29" s="4">
-        <v>41.605020810025373</v>
-      </c>
-      <c r="N29" s="6">
-        <v>9.6797999999999995E-2</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0.185775</v>
-      </c>
-      <c r="P29" s="6">
-        <v>1.9192028760924813</v>
-      </c>
-      <c r="Q29">
-        <v>9.7344E-2</v>
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="E29">
+        <v>102869</v>
+      </c>
+      <c r="F29">
+        <v>3521310</v>
+      </c>
+      <c r="G29">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="H29">
+        <v>9301</v>
+      </c>
+      <c r="I29">
+        <v>1961680</v>
+      </c>
+      <c r="J29">
+        <v>87794</v>
+      </c>
+      <c r="K29">
+        <v>3506244</v>
+      </c>
+      <c r="L29">
+        <v>78493</v>
+      </c>
+      <c r="M29">
+        <v>1544564</v>
+      </c>
+      <c r="N29">
+        <v>39.355458448524075</v>
+      </c>
+      <c r="O29" s="5">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="P29" s="5">
+        <v>7.6350000000000003E-3</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>2.9941176470588236</v>
       </c>
       <c r="R29">
-        <v>0.186254</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1.9133588099934253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2.64E-3</v>
+      </c>
+      <c r="S29">
+        <v>7.7340000000000004E-3</v>
+      </c>
+      <c r="T29">
+        <v>2.9295454545454547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -2398,58 +2484,61 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>7.8100000000000001E-4</v>
+        <v>1.5899999999999999E-4</v>
       </c>
       <c r="D30">
-        <v>5.1500000000000005E-4</v>
-      </c>
-      <c r="E30" s="4">
-        <v>201086863</v>
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="E30">
+        <v>199881</v>
       </c>
       <c r="F30" s="4">
-        <v>0.65941101152368764</v>
+        <v>7248722</v>
       </c>
       <c r="G30" s="4">
-        <v>263944</v>
+        <v>1.0628930817610063</v>
       </c>
       <c r="H30" s="4">
-        <v>183139066</v>
+        <v>16521</v>
       </c>
       <c r="I30" s="4">
-        <v>892588</v>
+        <v>3979866</v>
       </c>
       <c r="J30" s="4">
-        <v>201023463</v>
+        <v>169152</v>
       </c>
       <c r="K30" s="4">
-        <v>628644</v>
+        <v>7218010</v>
       </c>
       <c r="L30" s="4">
-        <v>17884397</v>
+        <v>152631</v>
       </c>
       <c r="M30" s="4">
-        <v>56.898330374584027</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0.21873000000000001</v>
+        <v>3238144</v>
+      </c>
+      <c r="N30" s="4">
+        <v>42.431013359016191</v>
       </c>
       <c r="O30" s="6">
-        <v>0.39269500000000002</v>
+        <v>5.8829999999999993E-3</v>
       </c>
       <c r="P30" s="6">
-        <v>1.7953412883463631</v>
-      </c>
-      <c r="Q30">
-        <v>0.21951100000000001</v>
+        <v>1.8600000000000002E-2</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>3.1616522182559925</v>
       </c>
       <c r="R30">
-        <v>0.39321</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1.7912997526319865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+        <v>6.0419999999999996E-3</v>
+      </c>
+      <c r="S30">
+        <v>1.8769000000000001E-2</v>
+      </c>
+      <c r="T30" s="4">
+        <v>3.1064217146640187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2457,58 +2546,61 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9.0000000000000006E-5</v>
+        <v>2.1599999999999999E-4</v>
       </c>
       <c r="D31">
-        <v>9.8999999999999994E-5</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="E31">
-        <v>3521310</v>
+        <v>388707</v>
       </c>
       <c r="F31">
-        <v>1.0999999999999999</v>
+        <v>14843582</v>
       </c>
       <c r="G31">
-        <v>9301</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="H31">
-        <v>1961680</v>
+        <v>43695</v>
       </c>
       <c r="I31">
-        <v>87794</v>
+        <v>10105463</v>
       </c>
       <c r="J31">
-        <v>3506244</v>
+        <v>325306</v>
       </c>
       <c r="K31">
-        <v>78493</v>
+        <v>14780230</v>
       </c>
       <c r="L31">
-        <v>1544564</v>
+        <v>281611</v>
       </c>
       <c r="M31">
-        <v>39.355458448524075</v>
-      </c>
-      <c r="N31" s="5">
-        <v>2.5500000000000002E-3</v>
+        <v>4674767</v>
+      </c>
+      <c r="N31">
+        <v>33.200173288685455</v>
       </c>
       <c r="O31" s="5">
-        <v>7.6350000000000003E-3</v>
+        <v>1.0806000000000001E-2</v>
       </c>
       <c r="P31" s="5">
-        <v>2.9941176470588236</v>
-      </c>
-      <c r="Q31">
-        <v>2.64E-3</v>
+        <v>2.3299999999999998E-2</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>2.1562095132333883</v>
       </c>
       <c r="R31">
-        <v>7.7340000000000004E-3</v>
+        <v>1.1022000000000001E-2</v>
       </c>
       <c r="S31">
-        <v>2.9295454545454547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2.3539999999999998E-2</v>
+      </c>
+      <c r="T31">
+        <v>2.1357285429141712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -2516,58 +2608,61 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.5899999999999999E-4</v>
+        <v>5.0900000000000001E-4</v>
       </c>
       <c r="D32">
-        <v>1.6899999999999999E-4</v>
-      </c>
-      <c r="E32" s="4">
-        <v>7248722</v>
+        <v>4.5899999999999999E-4</v>
+      </c>
+      <c r="E32">
+        <v>755026</v>
       </c>
       <c r="F32" s="4">
-        <v>1.0628930817610063</v>
+        <v>30290104</v>
       </c>
       <c r="G32" s="4">
-        <v>16521</v>
+        <v>0.9017681728880157</v>
       </c>
       <c r="H32" s="4">
-        <v>3979866</v>
+        <v>60416</v>
       </c>
       <c r="I32" s="4">
-        <v>169152</v>
+        <v>18823438</v>
       </c>
       <c r="J32" s="4">
-        <v>7218010</v>
+        <v>626806</v>
       </c>
       <c r="K32" s="4">
-        <v>152631</v>
+        <v>30161953</v>
       </c>
       <c r="L32" s="4">
-        <v>3238144</v>
+        <v>566390</v>
       </c>
       <c r="M32" s="4">
-        <v>42.431013359016191</v>
-      </c>
-      <c r="N32" s="6">
-        <v>5.8829999999999993E-3</v>
+        <v>11338515</v>
+      </c>
+      <c r="N32" s="4">
+        <v>40.037836119987993</v>
       </c>
       <c r="O32" s="6">
-        <v>1.8600000000000002E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="P32" s="6">
-        <v>3.1616522182559925</v>
-      </c>
-      <c r="Q32">
-        <v>6.0419999999999996E-3</v>
+        <v>7.0545999999999998E-2</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>2.0389017341040461</v>
       </c>
       <c r="R32">
-        <v>1.8769000000000001E-2</v>
-      </c>
-      <c r="S32" s="4">
-        <v>3.1064217146640187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+        <v>3.5109000000000001E-2</v>
+      </c>
+      <c r="S32">
+        <v>7.1004999999999999E-2</v>
+      </c>
+      <c r="T32" s="4">
+        <v>2.0224159047537666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2575,58 +2670,61 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.1599999999999999E-4</v>
+        <v>6.7599999999999995E-4</v>
       </c>
       <c r="D33">
-        <v>2.4000000000000001E-4</v>
+        <v>7.8700000000000005E-4</v>
       </c>
       <c r="E33">
-        <v>14843582</v>
+        <v>1465546</v>
       </c>
       <c r="F33">
-        <v>1.1111111111111112</v>
+        <v>61604169</v>
       </c>
       <c r="G33">
-        <v>43695</v>
+        <v>1.1642011834319528</v>
       </c>
       <c r="H33">
-        <v>10105463</v>
+        <v>189948</v>
       </c>
       <c r="I33">
-        <v>325306</v>
+        <v>46571394</v>
       </c>
       <c r="J33">
-        <v>14780230</v>
+        <v>1204507</v>
       </c>
       <c r="K33">
-        <v>281611</v>
+        <v>61343269</v>
       </c>
       <c r="L33">
-        <v>4674767</v>
+        <v>1014559</v>
       </c>
       <c r="M33">
-        <v>33.200173288685455</v>
-      </c>
-      <c r="N33" s="5">
-        <v>1.0806000000000001E-2</v>
+        <v>14771875</v>
+      </c>
+      <c r="N33">
+        <v>29.119794905964071</v>
       </c>
       <c r="O33" s="5">
-        <v>2.3299999999999998E-2</v>
+        <v>5.7502999999999999E-2</v>
       </c>
       <c r="P33" s="5">
-        <v>2.1562095132333883</v>
-      </c>
-      <c r="Q33">
-        <v>1.1022000000000001E-2</v>
+        <v>0.10046000000000001</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1.7470392849068745</v>
       </c>
       <c r="R33">
-        <v>2.3539999999999998E-2</v>
+        <v>5.8179000000000002E-2</v>
       </c>
       <c r="S33">
-        <v>2.1357285429141712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.101247</v>
+      </c>
+      <c r="T33">
+        <v>1.7402671066879802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2634,117 +2732,123 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5.0900000000000001E-4</v>
+        <v>1.6180000000000001E-3</v>
       </c>
       <c r="D34">
-        <v>4.5899999999999999E-4</v>
-      </c>
-      <c r="E34" s="4">
-        <v>30290104</v>
+        <v>1.557E-3</v>
+      </c>
+      <c r="E34">
+        <v>2845797</v>
       </c>
       <c r="F34" s="4">
-        <v>0.9017681728880157</v>
+        <v>124942349</v>
       </c>
       <c r="G34" s="4">
-        <v>60416</v>
+        <v>0.96229913473423978</v>
       </c>
       <c r="H34" s="4">
-        <v>18823438</v>
+        <v>280499</v>
       </c>
       <c r="I34" s="4">
-        <v>626806</v>
+        <v>89862334</v>
       </c>
       <c r="J34" s="4">
-        <v>30161953</v>
+        <v>2315813</v>
       </c>
       <c r="K34" s="4">
-        <v>566390</v>
+        <v>124412652</v>
       </c>
       <c r="L34" s="4">
-        <v>11338515</v>
+        <v>2035314</v>
       </c>
       <c r="M34" s="4">
-        <v>40.037836119987993</v>
-      </c>
-      <c r="N34" s="6">
-        <v>3.4599999999999999E-2</v>
+        <v>34550318</v>
+      </c>
+      <c r="N34" s="4">
+        <v>33.950847879000492</v>
       </c>
       <c r="O34" s="6">
-        <v>7.0545999999999998E-2</v>
+        <v>0.17312900000000001</v>
       </c>
       <c r="P34" s="6">
-        <v>2.0389017341040461</v>
-      </c>
-      <c r="Q34">
-        <v>3.5109000000000001E-2</v>
+        <v>0.28941600000000001</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>1.6716783438938594</v>
       </c>
       <c r="R34">
-        <v>7.1004999999999999E-2</v>
-      </c>
-      <c r="S34" s="4">
-        <v>2.0224159047537666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+        <v>0.17474700000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.29097299999999998</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1.6651101306460194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>6.7599999999999995E-4</v>
+        <v>4.0769999999999999E-3</v>
       </c>
       <c r="D35">
-        <v>7.8700000000000005E-4</v>
+        <v>3.1050000000000001E-3</v>
       </c>
       <c r="E35">
-        <v>61604169</v>
-      </c>
-      <c r="F35">
-        <v>1.1642011834319528</v>
-      </c>
-      <c r="G35">
-        <v>189948</v>
-      </c>
-      <c r="H35">
-        <v>46571394</v>
-      </c>
-      <c r="I35">
-        <v>1204507</v>
-      </c>
-      <c r="J35">
-        <v>61343269</v>
-      </c>
-      <c r="K35">
-        <v>1014559</v>
-      </c>
-      <c r="L35">
-        <v>14771875</v>
-      </c>
-      <c r="M35">
-        <v>29.119794905964071</v>
-      </c>
-      <c r="N35" s="5">
-        <v>5.7502999999999999E-2</v>
-      </c>
-      <c r="O35" s="5">
-        <v>0.10046000000000001</v>
-      </c>
-      <c r="P35" s="5">
-        <v>1.7470392849068745</v>
-      </c>
-      <c r="Q35">
-        <v>5.8179000000000002E-2</v>
+        <v>5520326</v>
+      </c>
+      <c r="F35" s="4">
+        <v>252819809</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.76158940397350994</v>
+      </c>
+      <c r="H35" s="4">
+        <v>403463</v>
+      </c>
+      <c r="I35" s="4">
+        <v>169764840</v>
+      </c>
+      <c r="J35" s="4">
+        <v>4460152</v>
+      </c>
+      <c r="K35" s="4">
+        <v>251760234</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4056689</v>
+      </c>
+      <c r="M35" s="4">
+        <v>81995394</v>
+      </c>
+      <c r="N35" s="4">
+        <v>40.424786815060266</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0.52760200000000002</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0.89531300000000003</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1.6969476992126642</v>
       </c>
       <c r="R35">
-        <v>0.101247</v>
+        <v>0.53167900000000001</v>
       </c>
       <c r="S35">
-        <v>1.7402671066879802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.89841800000000005</v>
+      </c>
+      <c r="T35" s="4">
+        <v>1.6897752215152377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -2752,172 +2856,57 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.6180000000000001E-3</v>
+        <v>8.4329999999999995E-3</v>
       </c>
       <c r="D36">
-        <v>1.557E-3</v>
-      </c>
-      <c r="E36" s="4">
-        <v>124942349</v>
+        <v>5.4790000000000004E-3</v>
+      </c>
+      <c r="E36">
+        <v>10708196</v>
       </c>
       <c r="F36" s="4">
-        <v>0.96229913473423978</v>
+        <v>510588330</v>
       </c>
       <c r="G36" s="4">
-        <v>280499</v>
+        <v>0.64970947468279383</v>
       </c>
       <c r="H36" s="4">
-        <v>89862334</v>
+        <v>1269873</v>
       </c>
       <c r="I36" s="4">
-        <v>2315813</v>
+        <v>404162374</v>
       </c>
       <c r="J36" s="4">
-        <v>124412652</v>
+        <v>8578357</v>
       </c>
       <c r="K36" s="4">
-        <v>2035314</v>
+        <v>508459676</v>
       </c>
       <c r="L36" s="4">
-        <v>34550318</v>
+        <v>7308484</v>
       </c>
       <c r="M36" s="4">
-        <v>33.950847879000492</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0.17312900000000001</v>
+        <v>104297302</v>
+      </c>
+      <c r="N36" s="4">
+        <v>28.541432669210195</v>
       </c>
       <c r="O36" s="6">
-        <v>0.28941600000000001</v>
+        <v>0.82625599999999999</v>
       </c>
       <c r="P36" s="6">
-        <v>1.6716783438938594</v>
-      </c>
-      <c r="Q36">
-        <v>0.17474700000000001</v>
+        <v>1.264254</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1.5300996301388432</v>
       </c>
       <c r="R36">
-        <v>0.29097299999999998</v>
-      </c>
-      <c r="S36" s="4">
-        <v>1.6651101306460194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>4.0769999999999999E-3</v>
-      </c>
-      <c r="D37">
-        <v>3.1050000000000001E-3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>252819809</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.76158940397350994</v>
-      </c>
-      <c r="G37" s="4">
-        <v>403463</v>
-      </c>
-      <c r="H37" s="4">
-        <v>169764840</v>
-      </c>
-      <c r="I37" s="4">
-        <v>4460152</v>
-      </c>
-      <c r="J37" s="4">
-        <v>251760234</v>
-      </c>
-      <c r="K37" s="4">
-        <v>4056689</v>
-      </c>
-      <c r="L37" s="4">
-        <v>81995394</v>
-      </c>
-      <c r="M37" s="4">
-        <v>40.424786815060266</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0.52760200000000002</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0.89531300000000003</v>
-      </c>
-      <c r="P37" s="6">
-        <v>1.6969476992126642</v>
-      </c>
-      <c r="Q37">
-        <v>0.53167900000000001</v>
-      </c>
-      <c r="R37">
-        <v>0.89841800000000005</v>
-      </c>
-      <c r="S37" s="4">
-        <v>1.6897752215152377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>8.4329999999999995E-3</v>
-      </c>
-      <c r="D38">
-        <v>5.4790000000000004E-3</v>
-      </c>
-      <c r="E38" s="4">
-        <v>510588330</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.64970947468279383</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1269873</v>
-      </c>
-      <c r="H38" s="4">
-        <v>404162374</v>
-      </c>
-      <c r="I38" s="4">
-        <v>8578357</v>
-      </c>
-      <c r="J38" s="4">
-        <v>508459676</v>
-      </c>
-      <c r="K38" s="4">
-        <v>7308484</v>
-      </c>
-      <c r="L38" s="4">
-        <v>104297302</v>
-      </c>
-      <c r="M38" s="4">
-        <v>28.541432669210195</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0.82625599999999999</v>
-      </c>
-      <c r="O38" s="6">
-        <v>1.264254</v>
-      </c>
-      <c r="P38" s="6">
-        <v>1.5300996301388432</v>
-      </c>
-      <c r="Q38">
         <v>0.83468900000000001</v>
       </c>
-      <c r="R38">
+      <c r="S36">
         <v>1.269733</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T36" s="4">
         <v>1.5212049038623967</v>
       </c>
     </row>

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D89562-D454-4553-A63C-03C2E06DBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B35106D-B162-4F9A-BAA1-C2CD62A97742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,7 +653,7 @@
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B35106D-B162-4F9A-BAA1-C2CD62A97742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB5638B-2314-4AAA-910C-5B9B82773FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Triangle-count</t>
   </si>
@@ -232,6 +232,14 @@
   </si>
   <si>
     <t>vertex-count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUST-percent-search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupTC-HS-percent-search</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,9 +676,12 @@
     <col min="17" max="17" width="22" style="5" customWidth="1"/>
     <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,8 +742,14 @@
       <c r="T1" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -801,8 +818,16 @@
         <f t="array" ref="T2:T36">S2:S36/R2:R36</f>
         <v>1.0987654320987654</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" cm="1">
+        <f t="array" ref="U2:U36">P2:P36/S2:S36</f>
+        <v>0.449438202247191</v>
+      </c>
+      <c r="V2" cm="1">
+        <f t="array" ref="V2:V36">O2:O36/R2:R36</f>
+        <v>0.64197530864197527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -863,8 +888,14 @@
       <c r="T3">
         <v>2.2558139534883721</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3">
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="V3">
+        <v>0.48837209302325585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -925,8 +956,14 @@
       <c r="T4">
         <v>1.9545454545454546</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U4">
+        <v>0.84302325581395343</v>
+      </c>
+      <c r="V4">
+        <v>0.86931818181818188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1024,14 @@
       <c r="T5">
         <v>2.0127388535031847</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U5">
+        <v>0.88765822784810122</v>
+      </c>
+      <c r="V5">
+        <v>0.8980891719745222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1092,14 @@
       <c r="T6">
         <v>0.85628742514970058</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U6">
+        <v>0.65501165501165504</v>
+      </c>
+      <c r="V6">
+        <v>0.89820359281437123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1111,8 +1160,14 @@
       <c r="T7">
         <v>1.6352941176470586</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U7">
+        <v>0.60431654676258983</v>
+      </c>
+      <c r="V7">
+        <v>0.8529411764705882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1228,14 @@
       <c r="T8">
         <v>1.5267558528428093</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U8">
+        <v>0.64512595837897035</v>
+      </c>
+      <c r="V8">
+        <v>0.82608695652173902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1296,14 @@
       <c r="T9">
         <v>2.5051813471502591</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U9">
+        <v>0.32264736297828334</v>
+      </c>
+      <c r="V9">
+        <v>0.74352331606217625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1297,8 +1364,14 @@
       <c r="T10">
         <v>2.4861913937058446</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U10">
+        <v>0.87470937742185473</v>
+      </c>
+      <c r="V10">
+        <v>0.92485549132947986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1359,8 +1432,14 @@
       <c r="T11">
         <v>1.0799059929494712</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U11">
+        <v>0.7393906420021763</v>
+      </c>
+      <c r="V11">
+        <v>0.85957696827262042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1421,8 +1500,14 @@
       <c r="T12">
         <v>1.6543710807819993</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U12">
+        <v>0.75875139353400223</v>
+      </c>
+      <c r="V12">
+        <v>0.84323127997049052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1483,8 +1568,14 @@
       <c r="T13">
         <v>1.6556496591613303</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U13">
+        <v>0.7268870867124142</v>
+      </c>
+      <c r="V13">
+        <v>0.66205329477380703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="T14" s="4">
         <v>1.6318164238752095</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U14" s="4">
+        <v>0.91128140306525507</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.83627691117700143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1607,8 +1704,14 @@
       <c r="T15">
         <v>1.9371300499971267</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U15">
+        <v>0.95695383885131124</v>
+      </c>
+      <c r="V15">
+        <v>0.93293488879949416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1669,8 +1772,14 @@
       <c r="T16">
         <v>1.8109020249539782</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U16">
+        <v>0.86779239848647427</v>
+      </c>
+      <c r="V16">
+        <v>0.81867457557782775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1731,8 +1840,14 @@
       <c r="T17">
         <v>1.7723620782003213</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U17">
+        <v>0.88175106851444107</v>
+      </c>
+      <c r="V17">
+        <v>0.82477618792562546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1793,8 +1908,14 @@
       <c r="T18" s="4">
         <v>1.6653542618160184</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U18" s="4">
+        <v>0.97604287065251649</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.87740388821810422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1855,8 +1976,14 @@
       <c r="T19" s="4">
         <v>1.498565138712757</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U19" s="4">
+        <v>0.97292689605860183</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0.91387982502386678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1917,8 +2044,14 @@
       <c r="T20" s="4">
         <v>1.6210289245361769</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U20" s="4">
+        <v>0.97943495397045743</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0.81304595939262536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1979,8 +2112,14 @@
       <c r="T21">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U21">
+        <v>0.91351135910721393</v>
+      </c>
+      <c r="V21">
+        <v>0.91769230769230781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2041,8 +2180,14 @@
       <c r="T22">
         <v>2.1807909604519775</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U22">
+        <v>0.95025906735751298</v>
+      </c>
+      <c r="V22">
+        <v>0.93822975517890772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2103,8 +2248,14 @@
       <c r="T23">
         <v>2.1271124173401912</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U23">
+        <v>0.97107081174438681</v>
+      </c>
+      <c r="V23">
+        <v>0.95903747244673032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2165,8 +2316,14 @@
       <c r="T24">
         <v>2.2665485471296956</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U24">
+        <v>0.98789906506988534</v>
+      </c>
+      <c r="V24">
+        <v>0.97625797306874551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -2227,8 +2384,14 @@
       <c r="T25" s="4">
         <v>2.0225570334083334</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U25" s="4">
+        <v>0.99355056749373361</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.98558856198912026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -2289,8 +2452,14 @@
       <c r="T26" s="4">
         <v>1.8130558423445453</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U26" s="4">
+        <v>0.99526459334445583</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.99103407053197845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2351,8 +2520,14 @@
       <c r="T27" s="4">
         <v>1.9133588099934253</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U27" s="4">
+        <v>0.99742824315182488</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.99439102564102555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -2413,8 +2588,14 @@
       <c r="T28" s="4">
         <v>1.7912997526319865</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U28" s="4">
+        <v>0.99869026728720023</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.9964420917402772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2475,8 +2656,14 @@
       <c r="T29">
         <v>2.9295454545454547</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U29">
+        <v>0.98719937936384794</v>
+      </c>
+      <c r="V29">
+        <v>0.96590909090909094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -2537,8 +2724,14 @@
       <c r="T30" s="4">
         <v>3.1064217146640187</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U30" s="4">
+        <v>0.99099579093185575</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0.97368421052631571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2599,8 +2792,14 @@
       <c r="T31">
         <v>2.1357285429141712</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U31">
+        <v>0.98980458793542903</v>
+      </c>
+      <c r="V31">
+        <v>0.980402830702232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -2661,8 +2860,14 @@
       <c r="T32" s="4">
         <v>2.0224159047537666</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U32" s="4">
+        <v>0.99353566650235903</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.98550229285938074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2723,8 +2928,14 @@
       <c r="T33">
         <v>1.7402671066879802</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U33">
+        <v>0.99222693018064734</v>
+      </c>
+      <c r="V33">
+        <v>0.98838068718953564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2785,8 +2996,14 @@
       <c r="T34" s="4">
         <v>1.6651101306460194</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U34" s="4">
+        <v>0.99464898805043778</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0.99074089970071011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -2847,8 +3064,14 @@
       <c r="T35" s="4">
         <v>1.6897752215152377</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U35" s="4">
+        <v>0.99654392498814581</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0.9923318393241034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -2908,6 +3131,12 @@
       </c>
       <c r="T36" s="4">
         <v>1.5212049038623967</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0.99568491958545613</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0.98989683582747579</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB5638B-2314-4AAA-910C-5B9B82773FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C666E-1F1B-4D9C-A571-DC061DDBA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,63 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>As-Caida</t>
-  </si>
-  <si>
-    <t>P2p-Gnutella31</t>
-  </si>
-  <si>
-    <t>Email-EuAll</t>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-  </si>
-  <si>
-    <t>Com-Dblp</t>
-  </si>
-  <si>
-    <t>Amazon0601</t>
-  </si>
-  <si>
-    <t>RoadNet-CA</t>
-  </si>
-  <si>
-    <t>Wiki-Talk</t>
-  </si>
-  <si>
-    <t>Web-BerkStan</t>
-  </si>
-  <si>
-    <t>As-Skitter</t>
-  </si>
-  <si>
-    <t>Cit-Patents</t>
-  </si>
-  <si>
-    <t>Soc-Pokec</t>
-  </si>
-  <si>
-    <t>Sx-Stackoverflow</t>
-  </si>
-  <si>
-    <t>Com-Lj</t>
-  </si>
-  <si>
-    <t>Soc-LiveJ</t>
-  </si>
-  <si>
-    <t>Com-Orkut</t>
-  </si>
-  <si>
-    <t>Twitter7</t>
-  </si>
-  <si>
-    <t>Com-Friendster</t>
-  </si>
-  <si>
     <t>cluster2-s20-e2</t>
   </si>
   <si>
@@ -240,6 +183,82 @@
   </si>
   <si>
     <t>GroupTC-HS-percent-search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +296,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -345,6 +370,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +681,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="S2" sqref="S2:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,63 +724,63 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -829,7 +858,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -897,7 +926,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -965,7 +994,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1033,7 +1062,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1101,7 +1130,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1169,7 +1198,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1237,7 +1266,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1305,7 +1334,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1373,7 +1402,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1441,7 +1470,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1509,7 +1538,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1576,8 +1605,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
+      <c r="A14" t="s">
+        <v>50</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -1645,7 +1674,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1713,7 +1742,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1781,7 +1810,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1848,8 +1877,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
+      <c r="A18" t="s">
+        <v>54</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1916,8 +1945,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
+      <c r="A19" t="s">
+        <v>55</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1983,77 +2012,77 @@
         <v>0.91387982502386678</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
+    <row r="20" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>0.202463</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>3.6102000000000002E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>65608366</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>1806067135</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="7">
         <v>0.17831406232249844</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
         <v>4258252</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="7">
         <v>636634507</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="7">
         <v>51429670</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="7">
         <v>1791953648</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="7">
         <v>47171418</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="7">
         <v>1155319141</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="7">
         <v>48.983863109648304</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="8">
         <v>0.88049299999999997</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="8">
         <v>1.719401</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="8">
         <v>1.9527707772804554</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="7">
         <v>1.082956</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="7">
         <v>1.755503</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="7">
         <v>1.6210289245361769</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="7">
         <v>0.97943495397045743</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="7">
         <v>0.81304595939262536</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2121,7 +2150,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2189,7 +2218,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2257,7 +2286,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2325,7 +2354,7 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -2393,7 +2422,7 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -2461,7 +2490,7 @@
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -2529,7 +2558,7 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -2597,7 +2626,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2665,7 +2694,7 @@
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -2733,7 +2762,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2801,7 +2830,7 @@
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -2869,7 +2898,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2937,7 +2966,7 @@
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -3005,7 +3034,7 @@
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -3073,7 +3102,7 @@
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>

--- a/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-buildIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C666E-1F1B-4D9C-A571-DC061DDBA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB78DFEE-58A7-4AB8-B6F0-DEADD4893C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Am</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,10 +234,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,11 +246,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -2013,8 +2013,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>56</v>
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
